--- a/src/FE_Cipher_Template_S.xlsx
+++ b/src/FE_Cipher_Template_S.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="10">
   <si>
     <t>A character's title</t>
   </si>
@@ -640,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125:J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3116,9 +3116,8427 @@
       </c>
       <c r="K121" s="32"/>
     </row>
-    <row r="122" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H123" s="23"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="25"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="25"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="26"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="18"/>
+      <c r="G125" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" s="26"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="29">
+        <v>70</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" s="31">
+        <v>20</v>
+      </c>
+      <c r="F126" s="13"/>
+      <c r="G126" s="29">
+        <v>70</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I126" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K126" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="30"/>
+      <c r="B127" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="34"/>
+      <c r="D127" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="32"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="34"/>
+      <c r="J127" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K127" s="32"/>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="22"/>
+      <c r="K128" s="22"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="23"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H129" s="23"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="25"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="24"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="25"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="26"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="18"/>
+      <c r="G131" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H131" s="26"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="29">
+        <v>70</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" s="31">
+        <v>20</v>
+      </c>
+      <c r="F132" s="13"/>
+      <c r="G132" s="29">
+        <v>70</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I132" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J132" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K132" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="30"/>
+      <c r="B133" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="34"/>
+      <c r="D133" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="32"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I133" s="34"/>
+      <c r="J133" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K133" s="32"/>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+      <c r="J134" s="22"/>
+      <c r="K134" s="22"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="23"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H135" s="23"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="25"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="24"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="24"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="25"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="26"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" s="18"/>
+      <c r="G137" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H137" s="26"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="28"/>
+      <c r="K137" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="29">
+        <v>70</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" s="31">
+        <v>20</v>
+      </c>
+      <c r="F138" s="13"/>
+      <c r="G138" s="29">
+        <v>70</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I138" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K138" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="30"/>
+      <c r="B139" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="34"/>
+      <c r="D139" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="32"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I139" s="34"/>
+      <c r="J139" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K139" s="32"/>
+    </row>
+    <row r="140" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H140" s="22"/>
+      <c r="I140" s="22"/>
+      <c r="J140" s="22"/>
+      <c r="K140" s="22"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="23"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H141" s="23"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="25"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="24"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
+      <c r="I142" s="24"/>
+      <c r="J142" s="24"/>
+      <c r="K142" s="25"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="26"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143" s="18"/>
+      <c r="G143" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H143" s="26"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="29">
+        <v>70</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" s="31">
+        <v>20</v>
+      </c>
+      <c r="F144" s="13"/>
+      <c r="G144" s="29">
+        <v>70</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I144" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K144" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="30"/>
+      <c r="B145" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" s="34"/>
+      <c r="D145" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="32"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I145" s="34"/>
+      <c r="J145" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K145" s="32"/>
+    </row>
+    <row r="146" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="22"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H146" s="22"/>
+      <c r="I146" s="22"/>
+      <c r="J146" s="22"/>
+      <c r="K146" s="22"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="23"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H147" s="23"/>
+      <c r="I147" s="24"/>
+      <c r="J147" s="24"/>
+      <c r="K147" s="25"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="24"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
+      <c r="I148" s="24"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="25"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="26"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="18"/>
+      <c r="G149" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H149" s="26"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="28"/>
+      <c r="K149" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="29">
+        <v>70</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150" s="31">
+        <v>20</v>
+      </c>
+      <c r="F150" s="13"/>
+      <c r="G150" s="29">
+        <v>70</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I150" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J150" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K150" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="30"/>
+      <c r="B151" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="34"/>
+      <c r="D151" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="32"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I151" s="34"/>
+      <c r="J151" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K151" s="32"/>
+    </row>
+    <row r="152" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H152" s="22"/>
+      <c r="I152" s="22"/>
+      <c r="J152" s="22"/>
+      <c r="K152" s="22"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="23"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H153" s="23"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="25"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="24"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="24"/>
+      <c r="J154" s="24"/>
+      <c r="K154" s="25"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="26"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" s="18"/>
+      <c r="G155" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H155" s="26"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="29">
+        <v>70</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" s="31">
+        <v>20</v>
+      </c>
+      <c r="F156" s="13"/>
+      <c r="G156" s="29">
+        <v>70</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I156" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J156" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K156" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="30"/>
+      <c r="B157" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="34"/>
+      <c r="D157" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="32"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I157" s="34"/>
+      <c r="J157" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K157" s="32"/>
+    </row>
+    <row r="158" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="22"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H158" s="22"/>
+      <c r="I158" s="22"/>
+      <c r="J158" s="22"/>
+      <c r="K158" s="22"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="23"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H159" s="23"/>
+      <c r="I159" s="24"/>
+      <c r="J159" s="24"/>
+      <c r="K159" s="25"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="24"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="24"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="24"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="25"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" s="26"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" s="18"/>
+      <c r="G161" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H161" s="26"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="29">
+        <v>70</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E162" s="31">
+        <v>20</v>
+      </c>
+      <c r="F162" s="13"/>
+      <c r="G162" s="29">
+        <v>70</v>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I162" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K162" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="30"/>
+      <c r="B163" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" s="34"/>
+      <c r="D163" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="32"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I163" s="34"/>
+      <c r="J163" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K163" s="32"/>
+    </row>
+    <row r="164" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H164" s="22"/>
+      <c r="I164" s="22"/>
+      <c r="J164" s="22"/>
+      <c r="K164" s="22"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="23"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H165" s="23"/>
+      <c r="I165" s="24"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="25"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="24"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="25"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="24"/>
+      <c r="J166" s="24"/>
+      <c r="K166" s="25"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" s="26"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" s="18"/>
+      <c r="G167" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H167" s="26"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="28"/>
+      <c r="K167" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="29">
+        <v>70</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E168" s="31">
+        <v>20</v>
+      </c>
+      <c r="F168" s="13"/>
+      <c r="G168" s="29">
+        <v>70</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I168" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J168" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K168" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="30"/>
+      <c r="B169" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" s="34"/>
+      <c r="D169" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="32"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I169" s="34"/>
+      <c r="J169" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K169" s="32"/>
+    </row>
+    <row r="170" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" s="22"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H170" s="22"/>
+      <c r="I170" s="22"/>
+      <c r="J170" s="22"/>
+      <c r="K170" s="22"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="23"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="25"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H171" s="23"/>
+      <c r="I171" s="24"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="25"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="24"/>
+      <c r="B172" s="24"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="25"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="24"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="25"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="26"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" s="18"/>
+      <c r="G173" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H173" s="26"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="28"/>
+      <c r="K173" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="29">
+        <v>70</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E174" s="31">
+        <v>20</v>
+      </c>
+      <c r="F174" s="13"/>
+      <c r="G174" s="29">
+        <v>70</v>
+      </c>
+      <c r="H174" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I174" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K174" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="30"/>
+      <c r="B175" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" s="34"/>
+      <c r="D175" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="32"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I175" s="34"/>
+      <c r="J175" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K175" s="32"/>
+    </row>
+    <row r="176" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" s="22"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="18"/>
+      <c r="G176" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H176" s="22"/>
+      <c r="I176" s="22"/>
+      <c r="J176" s="22"/>
+      <c r="K176" s="22"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="23"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H177" s="23"/>
+      <c r="I177" s="24"/>
+      <c r="J177" s="24"/>
+      <c r="K177" s="25"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="24"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="24"/>
+      <c r="I178" s="24"/>
+      <c r="J178" s="24"/>
+      <c r="K178" s="25"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="26"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179" s="18"/>
+      <c r="G179" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H179" s="26"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="28"/>
+      <c r="K179" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="29">
+        <v>70</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E180" s="31">
+        <v>20</v>
+      </c>
+      <c r="F180" s="13"/>
+      <c r="G180" s="29">
+        <v>70</v>
+      </c>
+      <c r="H180" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I180" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J180" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K180" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="30"/>
+      <c r="B181" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="34"/>
+      <c r="D181" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="32"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="30"/>
+      <c r="H181" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I181" s="34"/>
+      <c r="J181" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K181" s="32"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" s="22"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H182" s="22"/>
+      <c r="I182" s="22"/>
+      <c r="J182" s="22"/>
+      <c r="K182" s="22"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="23"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="25"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H183" s="23"/>
+      <c r="I183" s="24"/>
+      <c r="J183" s="24"/>
+      <c r="K183" s="25"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="24"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="25"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="24"/>
+      <c r="H184" s="24"/>
+      <c r="I184" s="24"/>
+      <c r="J184" s="24"/>
+      <c r="K184" s="25"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="26"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" s="18"/>
+      <c r="G185" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H185" s="26"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="28"/>
+      <c r="K185" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="29">
+        <v>70</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E186" s="31">
+        <v>20</v>
+      </c>
+      <c r="F186" s="13"/>
+      <c r="G186" s="29">
+        <v>70</v>
+      </c>
+      <c r="H186" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I186" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J186" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K186" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="30"/>
+      <c r="B187" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" s="34"/>
+      <c r="D187" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="32"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="30"/>
+      <c r="H187" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I187" s="34"/>
+      <c r="J187" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K187" s="32"/>
+    </row>
+    <row r="188" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" s="22"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H188" s="22"/>
+      <c r="I188" s="22"/>
+      <c r="J188" s="22"/>
+      <c r="K188" s="22"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="23"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="25"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H189" s="23"/>
+      <c r="I189" s="24"/>
+      <c r="J189" s="24"/>
+      <c r="K189" s="25"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="24"/>
+      <c r="B190" s="24"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="25"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="24"/>
+      <c r="H190" s="24"/>
+      <c r="I190" s="24"/>
+      <c r="J190" s="24"/>
+      <c r="K190" s="25"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" s="26"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191" s="18"/>
+      <c r="G191" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H191" s="26"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="28"/>
+      <c r="K191" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="29">
+        <v>70</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E192" s="31">
+        <v>20</v>
+      </c>
+      <c r="F192" s="13"/>
+      <c r="G192" s="29">
+        <v>70</v>
+      </c>
+      <c r="H192" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I192" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J192" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K192" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="30"/>
+      <c r="B193" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" s="34"/>
+      <c r="D193" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" s="32"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="30"/>
+      <c r="H193" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I193" s="34"/>
+      <c r="J193" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K193" s="32"/>
+    </row>
+    <row r="194" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" s="22"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="22"/>
+      <c r="E194" s="22"/>
+      <c r="F194" s="18"/>
+      <c r="G194" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H194" s="22"/>
+      <c r="I194" s="22"/>
+      <c r="J194" s="22"/>
+      <c r="K194" s="22"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="23"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="25"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H195" s="23"/>
+      <c r="I195" s="24"/>
+      <c r="J195" s="24"/>
+      <c r="K195" s="25"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="24"/>
+      <c r="B196" s="24"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="25"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="24"/>
+      <c r="H196" s="24"/>
+      <c r="I196" s="24"/>
+      <c r="J196" s="24"/>
+      <c r="K196" s="25"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="26"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F197" s="18"/>
+      <c r="G197" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H197" s="26"/>
+      <c r="I197" s="27"/>
+      <c r="J197" s="28"/>
+      <c r="K197" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="29">
+        <v>70</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E198" s="31">
+        <v>20</v>
+      </c>
+      <c r="F198" s="13"/>
+      <c r="G198" s="29">
+        <v>70</v>
+      </c>
+      <c r="H198" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I198" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J198" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K198" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="30"/>
+      <c r="B199" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" s="34"/>
+      <c r="D199" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="32"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="30"/>
+      <c r="H199" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I199" s="34"/>
+      <c r="J199" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K199" s="32"/>
+    </row>
+    <row r="200" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B200" s="22"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="18"/>
+      <c r="G200" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H200" s="22"/>
+      <c r="I200" s="22"/>
+      <c r="J200" s="22"/>
+      <c r="K200" s="22"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="23"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="25"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H201" s="23"/>
+      <c r="I201" s="24"/>
+      <c r="J201" s="24"/>
+      <c r="K201" s="25"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="24"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="24"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="25"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="24"/>
+      <c r="H202" s="24"/>
+      <c r="I202" s="24"/>
+      <c r="J202" s="24"/>
+      <c r="K202" s="25"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="26"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203" s="18"/>
+      <c r="G203" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H203" s="26"/>
+      <c r="I203" s="27"/>
+      <c r="J203" s="28"/>
+      <c r="K203" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="29">
+        <v>70</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E204" s="31">
+        <v>20</v>
+      </c>
+      <c r="F204" s="13"/>
+      <c r="G204" s="29">
+        <v>70</v>
+      </c>
+      <c r="H204" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I204" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J204" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K204" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="30"/>
+      <c r="B205" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" s="34"/>
+      <c r="D205" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="32"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="30"/>
+      <c r="H205" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I205" s="34"/>
+      <c r="J205" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K205" s="32"/>
+    </row>
+    <row r="206" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B206" s="22"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="22"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H206" s="22"/>
+      <c r="I206" s="22"/>
+      <c r="J206" s="22"/>
+      <c r="K206" s="22"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="23"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="25"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H207" s="23"/>
+      <c r="I207" s="24"/>
+      <c r="J207" s="24"/>
+      <c r="K207" s="25"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="24"/>
+      <c r="B208" s="24"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="25"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="24"/>
+      <c r="H208" s="24"/>
+      <c r="I208" s="24"/>
+      <c r="J208" s="24"/>
+      <c r="K208" s="25"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" s="26"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="28"/>
+      <c r="E209" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F209" s="18"/>
+      <c r="G209" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H209" s="26"/>
+      <c r="I209" s="27"/>
+      <c r="J209" s="28"/>
+      <c r="K209" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="29">
+        <v>70</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E210" s="31">
+        <v>20</v>
+      </c>
+      <c r="F210" s="13"/>
+      <c r="G210" s="29">
+        <v>70</v>
+      </c>
+      <c r="H210" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I210" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J210" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K210" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="30"/>
+      <c r="B211" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" s="34"/>
+      <c r="D211" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="32"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="30"/>
+      <c r="H211" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I211" s="34"/>
+      <c r="J211" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K211" s="32"/>
+    </row>
+    <row r="212" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B212" s="22"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="22"/>
+      <c r="E212" s="22"/>
+      <c r="F212" s="18"/>
+      <c r="G212" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H212" s="22"/>
+      <c r="I212" s="22"/>
+      <c r="J212" s="22"/>
+      <c r="K212" s="22"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" s="23"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="24"/>
+      <c r="E213" s="25"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H213" s="23"/>
+      <c r="I213" s="24"/>
+      <c r="J213" s="24"/>
+      <c r="K213" s="25"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="24"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
+      <c r="D214" s="24"/>
+      <c r="E214" s="25"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="24"/>
+      <c r="H214" s="24"/>
+      <c r="I214" s="24"/>
+      <c r="J214" s="24"/>
+      <c r="K214" s="25"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215" s="26"/>
+      <c r="C215" s="27"/>
+      <c r="D215" s="28"/>
+      <c r="E215" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F215" s="18"/>
+      <c r="G215" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H215" s="26"/>
+      <c r="I215" s="27"/>
+      <c r="J215" s="28"/>
+      <c r="K215" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="29">
+        <v>70</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C216" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E216" s="31">
+        <v>20</v>
+      </c>
+      <c r="F216" s="13"/>
+      <c r="G216" s="29">
+        <v>70</v>
+      </c>
+      <c r="H216" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I216" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J216" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K216" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="30"/>
+      <c r="B217" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217" s="34"/>
+      <c r="D217" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" s="32"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="30"/>
+      <c r="H217" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I217" s="34"/>
+      <c r="J217" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K217" s="32"/>
+    </row>
+    <row r="218" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B218" s="22"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
+      <c r="E218" s="22"/>
+      <c r="F218" s="18"/>
+      <c r="G218" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H218" s="22"/>
+      <c r="I218" s="22"/>
+      <c r="J218" s="22"/>
+      <c r="K218" s="22"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" s="23"/>
+      <c r="C219" s="24"/>
+      <c r="D219" s="24"/>
+      <c r="E219" s="25"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H219" s="23"/>
+      <c r="I219" s="24"/>
+      <c r="J219" s="24"/>
+      <c r="K219" s="25"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="24"/>
+      <c r="B220" s="24"/>
+      <c r="C220" s="24"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="25"/>
+      <c r="F220" s="8"/>
+      <c r="G220" s="24"/>
+      <c r="H220" s="24"/>
+      <c r="I220" s="24"/>
+      <c r="J220" s="24"/>
+      <c r="K220" s="25"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="26"/>
+      <c r="C221" s="27"/>
+      <c r="D221" s="28"/>
+      <c r="E221" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F221" s="18"/>
+      <c r="G221" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H221" s="26"/>
+      <c r="I221" s="27"/>
+      <c r="J221" s="28"/>
+      <c r="K221" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="29">
+        <v>70</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E222" s="31">
+        <v>20</v>
+      </c>
+      <c r="F222" s="13"/>
+      <c r="G222" s="29">
+        <v>70</v>
+      </c>
+      <c r="H222" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I222" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J222" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K222" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="30"/>
+      <c r="B223" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" s="34"/>
+      <c r="D223" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="32"/>
+      <c r="F223" s="14"/>
+      <c r="G223" s="30"/>
+      <c r="H223" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I223" s="34"/>
+      <c r="J223" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K223" s="32"/>
+    </row>
+    <row r="224" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" s="22"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="22"/>
+      <c r="E224" s="22"/>
+      <c r="F224" s="18"/>
+      <c r="G224" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H224" s="22"/>
+      <c r="I224" s="22"/>
+      <c r="J224" s="22"/>
+      <c r="K224" s="22"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" s="23"/>
+      <c r="C225" s="24"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="25"/>
+      <c r="F225" s="17"/>
+      <c r="G225" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H225" s="23"/>
+      <c r="I225" s="24"/>
+      <c r="J225" s="24"/>
+      <c r="K225" s="25"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="24"/>
+      <c r="B226" s="24"/>
+      <c r="C226" s="24"/>
+      <c r="D226" s="24"/>
+      <c r="E226" s="25"/>
+      <c r="F226" s="8"/>
+      <c r="G226" s="24"/>
+      <c r="H226" s="24"/>
+      <c r="I226" s="24"/>
+      <c r="J226" s="24"/>
+      <c r="K226" s="25"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" s="26"/>
+      <c r="C227" s="27"/>
+      <c r="D227" s="28"/>
+      <c r="E227" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227" s="18"/>
+      <c r="G227" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H227" s="26"/>
+      <c r="I227" s="27"/>
+      <c r="J227" s="28"/>
+      <c r="K227" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="29">
+        <v>70</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E228" s="31">
+        <v>20</v>
+      </c>
+      <c r="F228" s="13"/>
+      <c r="G228" s="29">
+        <v>70</v>
+      </c>
+      <c r="H228" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I228" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J228" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K228" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="30"/>
+      <c r="B229" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229" s="34"/>
+      <c r="D229" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229" s="32"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="30"/>
+      <c r="H229" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I229" s="34"/>
+      <c r="J229" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K229" s="32"/>
+    </row>
+    <row r="230" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B230" s="22"/>
+      <c r="C230" s="22"/>
+      <c r="D230" s="22"/>
+      <c r="E230" s="22"/>
+      <c r="F230" s="18"/>
+      <c r="G230" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H230" s="22"/>
+      <c r="I230" s="22"/>
+      <c r="J230" s="22"/>
+      <c r="K230" s="22"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231" s="23"/>
+      <c r="C231" s="24"/>
+      <c r="D231" s="24"/>
+      <c r="E231" s="25"/>
+      <c r="F231" s="17"/>
+      <c r="G231" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H231" s="23"/>
+      <c r="I231" s="24"/>
+      <c r="J231" s="24"/>
+      <c r="K231" s="25"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="24"/>
+      <c r="B232" s="24"/>
+      <c r="C232" s="24"/>
+      <c r="D232" s="24"/>
+      <c r="E232" s="25"/>
+      <c r="F232" s="8"/>
+      <c r="G232" s="24"/>
+      <c r="H232" s="24"/>
+      <c r="I232" s="24"/>
+      <c r="J232" s="24"/>
+      <c r="K232" s="25"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="26"/>
+      <c r="C233" s="27"/>
+      <c r="D233" s="28"/>
+      <c r="E233" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F233" s="18"/>
+      <c r="G233" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H233" s="26"/>
+      <c r="I233" s="27"/>
+      <c r="J233" s="28"/>
+      <c r="K233" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="29">
+        <v>70</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E234" s="31">
+        <v>20</v>
+      </c>
+      <c r="F234" s="13"/>
+      <c r="G234" s="29">
+        <v>70</v>
+      </c>
+      <c r="H234" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I234" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J234" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K234" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="30"/>
+      <c r="B235" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" s="34"/>
+      <c r="D235" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E235" s="32"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="30"/>
+      <c r="H235" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I235" s="34"/>
+      <c r="J235" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K235" s="32"/>
+    </row>
+    <row r="236" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" s="22"/>
+      <c r="C236" s="22"/>
+      <c r="D236" s="22"/>
+      <c r="E236" s="22"/>
+      <c r="F236" s="18"/>
+      <c r="G236" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H236" s="22"/>
+      <c r="I236" s="22"/>
+      <c r="J236" s="22"/>
+      <c r="K236" s="22"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" s="23"/>
+      <c r="C237" s="24"/>
+      <c r="D237" s="24"/>
+      <c r="E237" s="25"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H237" s="23"/>
+      <c r="I237" s="24"/>
+      <c r="J237" s="24"/>
+      <c r="K237" s="25"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="24"/>
+      <c r="B238" s="24"/>
+      <c r="C238" s="24"/>
+      <c r="D238" s="24"/>
+      <c r="E238" s="25"/>
+      <c r="F238" s="8"/>
+      <c r="G238" s="24"/>
+      <c r="H238" s="24"/>
+      <c r="I238" s="24"/>
+      <c r="J238" s="24"/>
+      <c r="K238" s="25"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" s="26"/>
+      <c r="C239" s="27"/>
+      <c r="D239" s="28"/>
+      <c r="E239" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F239" s="18"/>
+      <c r="G239" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H239" s="26"/>
+      <c r="I239" s="27"/>
+      <c r="J239" s="28"/>
+      <c r="K239" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="29">
+        <v>70</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C240" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E240" s="31">
+        <v>20</v>
+      </c>
+      <c r="F240" s="13"/>
+      <c r="G240" s="29">
+        <v>70</v>
+      </c>
+      <c r="H240" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I240" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J240" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K240" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="30"/>
+      <c r="B241" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241" s="34"/>
+      <c r="D241" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E241" s="32"/>
+      <c r="F241" s="14"/>
+      <c r="G241" s="30"/>
+      <c r="H241" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I241" s="34"/>
+      <c r="J241" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K241" s="32"/>
+    </row>
+    <row r="242" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242" s="22"/>
+      <c r="C242" s="22"/>
+      <c r="D242" s="22"/>
+      <c r="E242" s="22"/>
+      <c r="F242" s="18"/>
+      <c r="G242" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H242" s="22"/>
+      <c r="I242" s="22"/>
+      <c r="J242" s="22"/>
+      <c r="K242" s="22"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" s="23"/>
+      <c r="C243" s="24"/>
+      <c r="D243" s="24"/>
+      <c r="E243" s="25"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H243" s="23"/>
+      <c r="I243" s="24"/>
+      <c r="J243" s="24"/>
+      <c r="K243" s="25"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="24"/>
+      <c r="B244" s="24"/>
+      <c r="C244" s="24"/>
+      <c r="D244" s="24"/>
+      <c r="E244" s="25"/>
+      <c r="F244" s="8"/>
+      <c r="G244" s="24"/>
+      <c r="H244" s="24"/>
+      <c r="I244" s="24"/>
+      <c r="J244" s="24"/>
+      <c r="K244" s="25"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" s="26"/>
+      <c r="C245" s="27"/>
+      <c r="D245" s="28"/>
+      <c r="E245" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F245" s="18"/>
+      <c r="G245" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H245" s="26"/>
+      <c r="I245" s="27"/>
+      <c r="J245" s="28"/>
+      <c r="K245" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="29">
+        <v>70</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C246" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E246" s="31">
+        <v>20</v>
+      </c>
+      <c r="F246" s="13"/>
+      <c r="G246" s="29">
+        <v>70</v>
+      </c>
+      <c r="H246" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I246" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J246" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K246" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="30"/>
+      <c r="B247" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C247" s="34"/>
+      <c r="D247" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E247" s="32"/>
+      <c r="F247" s="14"/>
+      <c r="G247" s="30"/>
+      <c r="H247" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I247" s="34"/>
+      <c r="J247" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K247" s="32"/>
+    </row>
+    <row r="248" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B248" s="22"/>
+      <c r="C248" s="22"/>
+      <c r="D248" s="22"/>
+      <c r="E248" s="22"/>
+      <c r="F248" s="18"/>
+      <c r="G248" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H248" s="22"/>
+      <c r="I248" s="22"/>
+      <c r="J248" s="22"/>
+      <c r="K248" s="22"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B249" s="23"/>
+      <c r="C249" s="24"/>
+      <c r="D249" s="24"/>
+      <c r="E249" s="25"/>
+      <c r="F249" s="17"/>
+      <c r="G249" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H249" s="23"/>
+      <c r="I249" s="24"/>
+      <c r="J249" s="24"/>
+      <c r="K249" s="25"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" s="24"/>
+      <c r="B250" s="24"/>
+      <c r="C250" s="24"/>
+      <c r="D250" s="24"/>
+      <c r="E250" s="25"/>
+      <c r="F250" s="8"/>
+      <c r="G250" s="24"/>
+      <c r="H250" s="24"/>
+      <c r="I250" s="24"/>
+      <c r="J250" s="24"/>
+      <c r="K250" s="25"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" s="26"/>
+      <c r="C251" s="27"/>
+      <c r="D251" s="28"/>
+      <c r="E251" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F251" s="18"/>
+      <c r="G251" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H251" s="26"/>
+      <c r="I251" s="27"/>
+      <c r="J251" s="28"/>
+      <c r="K251" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="29">
+        <v>70</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E252" s="31">
+        <v>20</v>
+      </c>
+      <c r="F252" s="13"/>
+      <c r="G252" s="29">
+        <v>70</v>
+      </c>
+      <c r="H252" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I252" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J252" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K252" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="30"/>
+      <c r="B253" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" s="34"/>
+      <c r="D253" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="32"/>
+      <c r="F253" s="14"/>
+      <c r="G253" s="30"/>
+      <c r="H253" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I253" s="34"/>
+      <c r="J253" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K253" s="32"/>
+    </row>
+    <row r="254" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" s="22"/>
+      <c r="C254" s="22"/>
+      <c r="D254" s="22"/>
+      <c r="E254" s="22"/>
+      <c r="F254" s="18"/>
+      <c r="G254" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H254" s="22"/>
+      <c r="I254" s="22"/>
+      <c r="J254" s="22"/>
+      <c r="K254" s="22"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" s="23"/>
+      <c r="C255" s="24"/>
+      <c r="D255" s="24"/>
+      <c r="E255" s="25"/>
+      <c r="F255" s="17"/>
+      <c r="G255" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H255" s="23"/>
+      <c r="I255" s="24"/>
+      <c r="J255" s="24"/>
+      <c r="K255" s="25"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" s="24"/>
+      <c r="B256" s="24"/>
+      <c r="C256" s="24"/>
+      <c r="D256" s="24"/>
+      <c r="E256" s="25"/>
+      <c r="F256" s="8"/>
+      <c r="G256" s="24"/>
+      <c r="H256" s="24"/>
+      <c r="I256" s="24"/>
+      <c r="J256" s="24"/>
+      <c r="K256" s="25"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B257" s="26"/>
+      <c r="C257" s="27"/>
+      <c r="D257" s="28"/>
+      <c r="E257" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F257" s="18"/>
+      <c r="G257" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H257" s="26"/>
+      <c r="I257" s="27"/>
+      <c r="J257" s="28"/>
+      <c r="K257" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="29">
+        <v>70</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C258" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E258" s="31">
+        <v>20</v>
+      </c>
+      <c r="F258" s="13"/>
+      <c r="G258" s="29">
+        <v>70</v>
+      </c>
+      <c r="H258" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I258" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J258" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K258" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="30"/>
+      <c r="B259" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" s="34"/>
+      <c r="D259" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E259" s="32"/>
+      <c r="F259" s="14"/>
+      <c r="G259" s="30"/>
+      <c r="H259" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I259" s="34"/>
+      <c r="J259" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K259" s="32"/>
+    </row>
+    <row r="260" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B260" s="22"/>
+      <c r="C260" s="22"/>
+      <c r="D260" s="22"/>
+      <c r="E260" s="22"/>
+      <c r="F260" s="18"/>
+      <c r="G260" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H260" s="22"/>
+      <c r="I260" s="22"/>
+      <c r="J260" s="22"/>
+      <c r="K260" s="22"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" s="23"/>
+      <c r="C261" s="24"/>
+      <c r="D261" s="24"/>
+      <c r="E261" s="25"/>
+      <c r="F261" s="17"/>
+      <c r="G261" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H261" s="23"/>
+      <c r="I261" s="24"/>
+      <c r="J261" s="24"/>
+      <c r="K261" s="25"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" s="24"/>
+      <c r="B262" s="24"/>
+      <c r="C262" s="24"/>
+      <c r="D262" s="24"/>
+      <c r="E262" s="25"/>
+      <c r="F262" s="8"/>
+      <c r="G262" s="24"/>
+      <c r="H262" s="24"/>
+      <c r="I262" s="24"/>
+      <c r="J262" s="24"/>
+      <c r="K262" s="25"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" s="26"/>
+      <c r="C263" s="27"/>
+      <c r="D263" s="28"/>
+      <c r="E263" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F263" s="18"/>
+      <c r="G263" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H263" s="26"/>
+      <c r="I263" s="27"/>
+      <c r="J263" s="28"/>
+      <c r="K263" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="29">
+        <v>70</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C264" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E264" s="31">
+        <v>20</v>
+      </c>
+      <c r="F264" s="13"/>
+      <c r="G264" s="29">
+        <v>70</v>
+      </c>
+      <c r="H264" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I264" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J264" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K264" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="30"/>
+      <c r="B265" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C265" s="34"/>
+      <c r="D265" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265" s="32"/>
+      <c r="F265" s="14"/>
+      <c r="G265" s="30"/>
+      <c r="H265" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I265" s="34"/>
+      <c r="J265" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K265" s="32"/>
+    </row>
+    <row r="266" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B266" s="22"/>
+      <c r="C266" s="22"/>
+      <c r="D266" s="22"/>
+      <c r="E266" s="22"/>
+      <c r="F266" s="18"/>
+      <c r="G266" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H266" s="22"/>
+      <c r="I266" s="22"/>
+      <c r="J266" s="22"/>
+      <c r="K266" s="22"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" s="23"/>
+      <c r="C267" s="24"/>
+      <c r="D267" s="24"/>
+      <c r="E267" s="25"/>
+      <c r="F267" s="17"/>
+      <c r="G267" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H267" s="23"/>
+      <c r="I267" s="24"/>
+      <c r="J267" s="24"/>
+      <c r="K267" s="25"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" s="24"/>
+      <c r="B268" s="24"/>
+      <c r="C268" s="24"/>
+      <c r="D268" s="24"/>
+      <c r="E268" s="25"/>
+      <c r="F268" s="8"/>
+      <c r="G268" s="24"/>
+      <c r="H268" s="24"/>
+      <c r="I268" s="24"/>
+      <c r="J268" s="24"/>
+      <c r="K268" s="25"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" s="26"/>
+      <c r="C269" s="27"/>
+      <c r="D269" s="28"/>
+      <c r="E269" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F269" s="18"/>
+      <c r="G269" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H269" s="26"/>
+      <c r="I269" s="27"/>
+      <c r="J269" s="28"/>
+      <c r="K269" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="29">
+        <v>70</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C270" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E270" s="31">
+        <v>20</v>
+      </c>
+      <c r="F270" s="13"/>
+      <c r="G270" s="29">
+        <v>70</v>
+      </c>
+      <c r="H270" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I270" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J270" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K270" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="30"/>
+      <c r="B271" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" s="34"/>
+      <c r="D271" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E271" s="32"/>
+      <c r="F271" s="14"/>
+      <c r="G271" s="30"/>
+      <c r="H271" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I271" s="34"/>
+      <c r="J271" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K271" s="32"/>
+    </row>
+    <row r="272" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B272" s="22"/>
+      <c r="C272" s="22"/>
+      <c r="D272" s="22"/>
+      <c r="E272" s="22"/>
+      <c r="F272" s="18"/>
+      <c r="G272" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H272" s="22"/>
+      <c r="I272" s="22"/>
+      <c r="J272" s="22"/>
+      <c r="K272" s="22"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" s="23"/>
+      <c r="C273" s="24"/>
+      <c r="D273" s="24"/>
+      <c r="E273" s="25"/>
+      <c r="F273" s="17"/>
+      <c r="G273" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H273" s="23"/>
+      <c r="I273" s="24"/>
+      <c r="J273" s="24"/>
+      <c r="K273" s="25"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" s="24"/>
+      <c r="B274" s="24"/>
+      <c r="C274" s="24"/>
+      <c r="D274" s="24"/>
+      <c r="E274" s="25"/>
+      <c r="F274" s="8"/>
+      <c r="G274" s="24"/>
+      <c r="H274" s="24"/>
+      <c r="I274" s="24"/>
+      <c r="J274" s="24"/>
+      <c r="K274" s="25"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" s="26"/>
+      <c r="C275" s="27"/>
+      <c r="D275" s="28"/>
+      <c r="E275" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F275" s="18"/>
+      <c r="G275" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H275" s="26"/>
+      <c r="I275" s="27"/>
+      <c r="J275" s="28"/>
+      <c r="K275" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="29">
+        <v>70</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C276" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D276" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E276" s="31">
+        <v>20</v>
+      </c>
+      <c r="F276" s="13"/>
+      <c r="G276" s="29">
+        <v>70</v>
+      </c>
+      <c r="H276" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I276" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J276" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K276" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="30"/>
+      <c r="B277" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" s="34"/>
+      <c r="D277" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" s="32"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="30"/>
+      <c r="H277" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I277" s="34"/>
+      <c r="J277" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K277" s="32"/>
+    </row>
+    <row r="278" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278" s="22"/>
+      <c r="C278" s="22"/>
+      <c r="D278" s="22"/>
+      <c r="E278" s="22"/>
+      <c r="F278" s="18"/>
+      <c r="G278" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H278" s="22"/>
+      <c r="I278" s="22"/>
+      <c r="J278" s="22"/>
+      <c r="K278" s="22"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" s="23"/>
+      <c r="C279" s="24"/>
+      <c r="D279" s="24"/>
+      <c r="E279" s="25"/>
+      <c r="F279" s="17"/>
+      <c r="G279" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H279" s="23"/>
+      <c r="I279" s="24"/>
+      <c r="J279" s="24"/>
+      <c r="K279" s="25"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" s="24"/>
+      <c r="B280" s="24"/>
+      <c r="C280" s="24"/>
+      <c r="D280" s="24"/>
+      <c r="E280" s="25"/>
+      <c r="F280" s="8"/>
+      <c r="G280" s="24"/>
+      <c r="H280" s="24"/>
+      <c r="I280" s="24"/>
+      <c r="J280" s="24"/>
+      <c r="K280" s="25"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B281" s="26"/>
+      <c r="C281" s="27"/>
+      <c r="D281" s="28"/>
+      <c r="E281" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F281" s="18"/>
+      <c r="G281" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H281" s="26"/>
+      <c r="I281" s="27"/>
+      <c r="J281" s="28"/>
+      <c r="K281" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="29">
+        <v>70</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C282" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D282" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E282" s="31">
+        <v>20</v>
+      </c>
+      <c r="F282" s="13"/>
+      <c r="G282" s="29">
+        <v>70</v>
+      </c>
+      <c r="H282" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I282" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J282" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K282" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="30"/>
+      <c r="B283" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" s="34"/>
+      <c r="D283" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283" s="32"/>
+      <c r="F283" s="14"/>
+      <c r="G283" s="30"/>
+      <c r="H283" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I283" s="34"/>
+      <c r="J283" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K283" s="32"/>
+    </row>
+    <row r="284" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B284" s="22"/>
+      <c r="C284" s="22"/>
+      <c r="D284" s="22"/>
+      <c r="E284" s="22"/>
+      <c r="F284" s="18"/>
+      <c r="G284" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H284" s="22"/>
+      <c r="I284" s="22"/>
+      <c r="J284" s="22"/>
+      <c r="K284" s="22"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B285" s="23"/>
+      <c r="C285" s="24"/>
+      <c r="D285" s="24"/>
+      <c r="E285" s="25"/>
+      <c r="F285" s="17"/>
+      <c r="G285" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H285" s="23"/>
+      <c r="I285" s="24"/>
+      <c r="J285" s="24"/>
+      <c r="K285" s="25"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" s="24"/>
+      <c r="B286" s="24"/>
+      <c r="C286" s="24"/>
+      <c r="D286" s="24"/>
+      <c r="E286" s="25"/>
+      <c r="F286" s="8"/>
+      <c r="G286" s="24"/>
+      <c r="H286" s="24"/>
+      <c r="I286" s="24"/>
+      <c r="J286" s="24"/>
+      <c r="K286" s="25"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B287" s="26"/>
+      <c r="C287" s="27"/>
+      <c r="D287" s="28"/>
+      <c r="E287" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F287" s="18"/>
+      <c r="G287" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H287" s="26"/>
+      <c r="I287" s="27"/>
+      <c r="J287" s="28"/>
+      <c r="K287" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="29">
+        <v>70</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C288" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E288" s="31">
+        <v>20</v>
+      </c>
+      <c r="F288" s="13"/>
+      <c r="G288" s="29">
+        <v>70</v>
+      </c>
+      <c r="H288" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I288" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J288" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K288" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="30"/>
+      <c r="B289" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" s="34"/>
+      <c r="D289" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289" s="32"/>
+      <c r="F289" s="14"/>
+      <c r="G289" s="30"/>
+      <c r="H289" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I289" s="34"/>
+      <c r="J289" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K289" s="32"/>
+    </row>
+    <row r="290" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B290" s="22"/>
+      <c r="C290" s="22"/>
+      <c r="D290" s="22"/>
+      <c r="E290" s="22"/>
+      <c r="F290" s="18"/>
+      <c r="G290" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H290" s="22"/>
+      <c r="I290" s="22"/>
+      <c r="J290" s="22"/>
+      <c r="K290" s="22"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B291" s="23"/>
+      <c r="C291" s="24"/>
+      <c r="D291" s="24"/>
+      <c r="E291" s="25"/>
+      <c r="F291" s="17"/>
+      <c r="G291" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H291" s="23"/>
+      <c r="I291" s="24"/>
+      <c r="J291" s="24"/>
+      <c r="K291" s="25"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" s="24"/>
+      <c r="B292" s="24"/>
+      <c r="C292" s="24"/>
+      <c r="D292" s="24"/>
+      <c r="E292" s="25"/>
+      <c r="F292" s="8"/>
+      <c r="G292" s="24"/>
+      <c r="H292" s="24"/>
+      <c r="I292" s="24"/>
+      <c r="J292" s="24"/>
+      <c r="K292" s="25"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" s="26"/>
+      <c r="C293" s="27"/>
+      <c r="D293" s="28"/>
+      <c r="E293" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F293" s="18"/>
+      <c r="G293" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H293" s="26"/>
+      <c r="I293" s="27"/>
+      <c r="J293" s="28"/>
+      <c r="K293" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A294" s="29">
+        <v>70</v>
+      </c>
+      <c r="B294" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C294" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D294" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E294" s="31">
+        <v>20</v>
+      </c>
+      <c r="F294" s="13"/>
+      <c r="G294" s="29">
+        <v>70</v>
+      </c>
+      <c r="H294" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I294" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J294" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K294" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="30"/>
+      <c r="B295" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" s="34"/>
+      <c r="D295" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E295" s="32"/>
+      <c r="F295" s="14"/>
+      <c r="G295" s="30"/>
+      <c r="H295" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I295" s="34"/>
+      <c r="J295" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K295" s="32"/>
+    </row>
+    <row r="296" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B296" s="22"/>
+      <c r="C296" s="22"/>
+      <c r="D296" s="22"/>
+      <c r="E296" s="22"/>
+      <c r="F296" s="18"/>
+      <c r="G296" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H296" s="22"/>
+      <c r="I296" s="22"/>
+      <c r="J296" s="22"/>
+      <c r="K296" s="22"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B297" s="23"/>
+      <c r="C297" s="24"/>
+      <c r="D297" s="24"/>
+      <c r="E297" s="25"/>
+      <c r="F297" s="17"/>
+      <c r="G297" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H297" s="23"/>
+      <c r="I297" s="24"/>
+      <c r="J297" s="24"/>
+      <c r="K297" s="25"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" s="24"/>
+      <c r="B298" s="24"/>
+      <c r="C298" s="24"/>
+      <c r="D298" s="24"/>
+      <c r="E298" s="25"/>
+      <c r="F298" s="8"/>
+      <c r="G298" s="24"/>
+      <c r="H298" s="24"/>
+      <c r="I298" s="24"/>
+      <c r="J298" s="24"/>
+      <c r="K298" s="25"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B299" s="26"/>
+      <c r="C299" s="27"/>
+      <c r="D299" s="28"/>
+      <c r="E299" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F299" s="18"/>
+      <c r="G299" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H299" s="26"/>
+      <c r="I299" s="27"/>
+      <c r="J299" s="28"/>
+      <c r="K299" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A300" s="29">
+        <v>70</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C300" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D300" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E300" s="31">
+        <v>20</v>
+      </c>
+      <c r="F300" s="13"/>
+      <c r="G300" s="29">
+        <v>70</v>
+      </c>
+      <c r="H300" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I300" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J300" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K300" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="30"/>
+      <c r="B301" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" s="34"/>
+      <c r="D301" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301" s="32"/>
+      <c r="F301" s="14"/>
+      <c r="G301" s="30"/>
+      <c r="H301" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I301" s="34"/>
+      <c r="J301" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K301" s="32"/>
+    </row>
+    <row r="302" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B302" s="22"/>
+      <c r="C302" s="22"/>
+      <c r="D302" s="22"/>
+      <c r="E302" s="22"/>
+      <c r="F302" s="18"/>
+      <c r="G302" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H302" s="22"/>
+      <c r="I302" s="22"/>
+      <c r="J302" s="22"/>
+      <c r="K302" s="22"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B303" s="23"/>
+      <c r="C303" s="24"/>
+      <c r="D303" s="24"/>
+      <c r="E303" s="25"/>
+      <c r="F303" s="17"/>
+      <c r="G303" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H303" s="23"/>
+      <c r="I303" s="24"/>
+      <c r="J303" s="24"/>
+      <c r="K303" s="25"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" s="24"/>
+      <c r="B304" s="24"/>
+      <c r="C304" s="24"/>
+      <c r="D304" s="24"/>
+      <c r="E304" s="25"/>
+      <c r="F304" s="8"/>
+      <c r="G304" s="24"/>
+      <c r="H304" s="24"/>
+      <c r="I304" s="24"/>
+      <c r="J304" s="24"/>
+      <c r="K304" s="25"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B305" s="26"/>
+      <c r="C305" s="27"/>
+      <c r="D305" s="28"/>
+      <c r="E305" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F305" s="18"/>
+      <c r="G305" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H305" s="26"/>
+      <c r="I305" s="27"/>
+      <c r="J305" s="28"/>
+      <c r="K305" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A306" s="29">
+        <v>70</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C306" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E306" s="31">
+        <v>20</v>
+      </c>
+      <c r="F306" s="13"/>
+      <c r="G306" s="29">
+        <v>70</v>
+      </c>
+      <c r="H306" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I306" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J306" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K306" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="30"/>
+      <c r="B307" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" s="34"/>
+      <c r="D307" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E307" s="32"/>
+      <c r="F307" s="14"/>
+      <c r="G307" s="30"/>
+      <c r="H307" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I307" s="34"/>
+      <c r="J307" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K307" s="32"/>
+    </row>
+    <row r="308" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B308" s="22"/>
+      <c r="C308" s="22"/>
+      <c r="D308" s="22"/>
+      <c r="E308" s="22"/>
+      <c r="F308" s="18"/>
+      <c r="G308" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H308" s="22"/>
+      <c r="I308" s="22"/>
+      <c r="J308" s="22"/>
+      <c r="K308" s="22"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B309" s="23"/>
+      <c r="C309" s="24"/>
+      <c r="D309" s="24"/>
+      <c r="E309" s="25"/>
+      <c r="F309" s="17"/>
+      <c r="G309" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H309" s="23"/>
+      <c r="I309" s="24"/>
+      <c r="J309" s="24"/>
+      <c r="K309" s="25"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="24"/>
+      <c r="B310" s="24"/>
+      <c r="C310" s="24"/>
+      <c r="D310" s="24"/>
+      <c r="E310" s="25"/>
+      <c r="F310" s="8"/>
+      <c r="G310" s="24"/>
+      <c r="H310" s="24"/>
+      <c r="I310" s="24"/>
+      <c r="J310" s="24"/>
+      <c r="K310" s="25"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B311" s="26"/>
+      <c r="C311" s="27"/>
+      <c r="D311" s="28"/>
+      <c r="E311" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F311" s="18"/>
+      <c r="G311" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H311" s="26"/>
+      <c r="I311" s="27"/>
+      <c r="J311" s="28"/>
+      <c r="K311" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A312" s="29">
+        <v>70</v>
+      </c>
+      <c r="B312" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C312" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D312" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E312" s="31">
+        <v>20</v>
+      </c>
+      <c r="F312" s="13"/>
+      <c r="G312" s="29">
+        <v>70</v>
+      </c>
+      <c r="H312" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I312" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J312" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K312" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="30"/>
+      <c r="B313" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" s="34"/>
+      <c r="D313" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" s="32"/>
+      <c r="F313" s="14"/>
+      <c r="G313" s="30"/>
+      <c r="H313" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I313" s="34"/>
+      <c r="J313" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K313" s="32"/>
+    </row>
+    <row r="314" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B314" s="22"/>
+      <c r="C314" s="22"/>
+      <c r="D314" s="22"/>
+      <c r="E314" s="22"/>
+      <c r="F314" s="18"/>
+      <c r="G314" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H314" s="22"/>
+      <c r="I314" s="22"/>
+      <c r="J314" s="22"/>
+      <c r="K314" s="22"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B315" s="23"/>
+      <c r="C315" s="24"/>
+      <c r="D315" s="24"/>
+      <c r="E315" s="25"/>
+      <c r="F315" s="17"/>
+      <c r="G315" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H315" s="23"/>
+      <c r="I315" s="24"/>
+      <c r="J315" s="24"/>
+      <c r="K315" s="25"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" s="24"/>
+      <c r="B316" s="24"/>
+      <c r="C316" s="24"/>
+      <c r="D316" s="24"/>
+      <c r="E316" s="25"/>
+      <c r="F316" s="8"/>
+      <c r="G316" s="24"/>
+      <c r="H316" s="24"/>
+      <c r="I316" s="24"/>
+      <c r="J316" s="24"/>
+      <c r="K316" s="25"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B317" s="26"/>
+      <c r="C317" s="27"/>
+      <c r="D317" s="28"/>
+      <c r="E317" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F317" s="18"/>
+      <c r="G317" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H317" s="26"/>
+      <c r="I317" s="27"/>
+      <c r="J317" s="28"/>
+      <c r="K317" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A318" s="29">
+        <v>70</v>
+      </c>
+      <c r="B318" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C318" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D318" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E318" s="31">
+        <v>20</v>
+      </c>
+      <c r="F318" s="13"/>
+      <c r="G318" s="29">
+        <v>70</v>
+      </c>
+      <c r="H318" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I318" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J318" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K318" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="30"/>
+      <c r="B319" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" s="34"/>
+      <c r="D319" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E319" s="32"/>
+      <c r="F319" s="14"/>
+      <c r="G319" s="30"/>
+      <c r="H319" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I319" s="34"/>
+      <c r="J319" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K319" s="32"/>
+    </row>
+    <row r="320" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B320" s="22"/>
+      <c r="C320" s="22"/>
+      <c r="D320" s="22"/>
+      <c r="E320" s="22"/>
+      <c r="F320" s="18"/>
+      <c r="G320" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H320" s="22"/>
+      <c r="I320" s="22"/>
+      <c r="J320" s="22"/>
+      <c r="K320" s="22"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B321" s="23"/>
+      <c r="C321" s="24"/>
+      <c r="D321" s="24"/>
+      <c r="E321" s="25"/>
+      <c r="F321" s="17"/>
+      <c r="G321" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H321" s="23"/>
+      <c r="I321" s="24"/>
+      <c r="J321" s="24"/>
+      <c r="K321" s="25"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" s="24"/>
+      <c r="B322" s="24"/>
+      <c r="C322" s="24"/>
+      <c r="D322" s="24"/>
+      <c r="E322" s="25"/>
+      <c r="F322" s="8"/>
+      <c r="G322" s="24"/>
+      <c r="H322" s="24"/>
+      <c r="I322" s="24"/>
+      <c r="J322" s="24"/>
+      <c r="K322" s="25"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B323" s="26"/>
+      <c r="C323" s="27"/>
+      <c r="D323" s="28"/>
+      <c r="E323" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F323" s="18"/>
+      <c r="G323" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H323" s="26"/>
+      <c r="I323" s="27"/>
+      <c r="J323" s="28"/>
+      <c r="K323" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A324" s="29">
+        <v>70</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C324" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D324" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E324" s="31">
+        <v>20</v>
+      </c>
+      <c r="F324" s="13"/>
+      <c r="G324" s="29">
+        <v>70</v>
+      </c>
+      <c r="H324" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I324" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J324" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K324" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="30"/>
+      <c r="B325" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325" s="34"/>
+      <c r="D325" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E325" s="32"/>
+      <c r="F325" s="14"/>
+      <c r="G325" s="30"/>
+      <c r="H325" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I325" s="34"/>
+      <c r="J325" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K325" s="32"/>
+    </row>
+    <row r="326" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B326" s="22"/>
+      <c r="C326" s="22"/>
+      <c r="D326" s="22"/>
+      <c r="E326" s="22"/>
+      <c r="F326" s="18"/>
+      <c r="G326" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H326" s="22"/>
+      <c r="I326" s="22"/>
+      <c r="J326" s="22"/>
+      <c r="K326" s="22"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B327" s="23"/>
+      <c r="C327" s="24"/>
+      <c r="D327" s="24"/>
+      <c r="E327" s="25"/>
+      <c r="F327" s="17"/>
+      <c r="G327" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H327" s="23"/>
+      <c r="I327" s="24"/>
+      <c r="J327" s="24"/>
+      <c r="K327" s="25"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" s="24"/>
+      <c r="B328" s="24"/>
+      <c r="C328" s="24"/>
+      <c r="D328" s="24"/>
+      <c r="E328" s="25"/>
+      <c r="F328" s="8"/>
+      <c r="G328" s="24"/>
+      <c r="H328" s="24"/>
+      <c r="I328" s="24"/>
+      <c r="J328" s="24"/>
+      <c r="K328" s="25"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B329" s="26"/>
+      <c r="C329" s="27"/>
+      <c r="D329" s="28"/>
+      <c r="E329" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F329" s="18"/>
+      <c r="G329" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H329" s="26"/>
+      <c r="I329" s="27"/>
+      <c r="J329" s="28"/>
+      <c r="K329" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A330" s="29">
+        <v>70</v>
+      </c>
+      <c r="B330" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C330" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D330" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E330" s="31">
+        <v>20</v>
+      </c>
+      <c r="F330" s="13"/>
+      <c r="G330" s="29">
+        <v>70</v>
+      </c>
+      <c r="H330" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I330" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J330" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K330" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="30"/>
+      <c r="B331" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C331" s="34"/>
+      <c r="D331" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E331" s="32"/>
+      <c r="F331" s="14"/>
+      <c r="G331" s="30"/>
+      <c r="H331" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I331" s="34"/>
+      <c r="J331" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K331" s="32"/>
+    </row>
+    <row r="332" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B332" s="22"/>
+      <c r="C332" s="22"/>
+      <c r="D332" s="22"/>
+      <c r="E332" s="22"/>
+      <c r="F332" s="18"/>
+      <c r="G332" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H332" s="22"/>
+      <c r="I332" s="22"/>
+      <c r="J332" s="22"/>
+      <c r="K332" s="22"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B333" s="23"/>
+      <c r="C333" s="24"/>
+      <c r="D333" s="24"/>
+      <c r="E333" s="25"/>
+      <c r="F333" s="17"/>
+      <c r="G333" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H333" s="23"/>
+      <c r="I333" s="24"/>
+      <c r="J333" s="24"/>
+      <c r="K333" s="25"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="24"/>
+      <c r="B334" s="24"/>
+      <c r="C334" s="24"/>
+      <c r="D334" s="24"/>
+      <c r="E334" s="25"/>
+      <c r="F334" s="8"/>
+      <c r="G334" s="24"/>
+      <c r="H334" s="24"/>
+      <c r="I334" s="24"/>
+      <c r="J334" s="24"/>
+      <c r="K334" s="25"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B335" s="26"/>
+      <c r="C335" s="27"/>
+      <c r="D335" s="28"/>
+      <c r="E335" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F335" s="18"/>
+      <c r="G335" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H335" s="26"/>
+      <c r="I335" s="27"/>
+      <c r="J335" s="28"/>
+      <c r="K335" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A336" s="29">
+        <v>70</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C336" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D336" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E336" s="31">
+        <v>20</v>
+      </c>
+      <c r="F336" s="13"/>
+      <c r="G336" s="29">
+        <v>70</v>
+      </c>
+      <c r="H336" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I336" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J336" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K336" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="30"/>
+      <c r="B337" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C337" s="34"/>
+      <c r="D337" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E337" s="32"/>
+      <c r="F337" s="14"/>
+      <c r="G337" s="30"/>
+      <c r="H337" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I337" s="34"/>
+      <c r="J337" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K337" s="32"/>
+    </row>
+    <row r="338" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B338" s="22"/>
+      <c r="C338" s="22"/>
+      <c r="D338" s="22"/>
+      <c r="E338" s="22"/>
+      <c r="F338" s="18"/>
+      <c r="G338" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H338" s="22"/>
+      <c r="I338" s="22"/>
+      <c r="J338" s="22"/>
+      <c r="K338" s="22"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B339" s="23"/>
+      <c r="C339" s="24"/>
+      <c r="D339" s="24"/>
+      <c r="E339" s="25"/>
+      <c r="F339" s="17"/>
+      <c r="G339" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H339" s="23"/>
+      <c r="I339" s="24"/>
+      <c r="J339" s="24"/>
+      <c r="K339" s="25"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="24"/>
+      <c r="B340" s="24"/>
+      <c r="C340" s="24"/>
+      <c r="D340" s="24"/>
+      <c r="E340" s="25"/>
+      <c r="F340" s="8"/>
+      <c r="G340" s="24"/>
+      <c r="H340" s="24"/>
+      <c r="I340" s="24"/>
+      <c r="J340" s="24"/>
+      <c r="K340" s="25"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B341" s="26"/>
+      <c r="C341" s="27"/>
+      <c r="D341" s="28"/>
+      <c r="E341" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F341" s="18"/>
+      <c r="G341" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H341" s="26"/>
+      <c r="I341" s="27"/>
+      <c r="J341" s="28"/>
+      <c r="K341" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A342" s="29">
+        <v>70</v>
+      </c>
+      <c r="B342" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C342" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E342" s="31">
+        <v>20</v>
+      </c>
+      <c r="F342" s="13"/>
+      <c r="G342" s="29">
+        <v>70</v>
+      </c>
+      <c r="H342" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I342" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J342" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K342" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="30"/>
+      <c r="B343" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" s="34"/>
+      <c r="D343" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E343" s="32"/>
+      <c r="F343" s="14"/>
+      <c r="G343" s="30"/>
+      <c r="H343" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I343" s="34"/>
+      <c r="J343" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K343" s="32"/>
+    </row>
+    <row r="344" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B344" s="22"/>
+      <c r="C344" s="22"/>
+      <c r="D344" s="22"/>
+      <c r="E344" s="22"/>
+      <c r="F344" s="18"/>
+      <c r="G344" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H344" s="22"/>
+      <c r="I344" s="22"/>
+      <c r="J344" s="22"/>
+      <c r="K344" s="22"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B345" s="23"/>
+      <c r="C345" s="24"/>
+      <c r="D345" s="24"/>
+      <c r="E345" s="25"/>
+      <c r="F345" s="17"/>
+      <c r="G345" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H345" s="23"/>
+      <c r="I345" s="24"/>
+      <c r="J345" s="24"/>
+      <c r="K345" s="25"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="24"/>
+      <c r="B346" s="24"/>
+      <c r="C346" s="24"/>
+      <c r="D346" s="24"/>
+      <c r="E346" s="25"/>
+      <c r="F346" s="8"/>
+      <c r="G346" s="24"/>
+      <c r="H346" s="24"/>
+      <c r="I346" s="24"/>
+      <c r="J346" s="24"/>
+      <c r="K346" s="25"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B347" s="26"/>
+      <c r="C347" s="27"/>
+      <c r="D347" s="28"/>
+      <c r="E347" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F347" s="18"/>
+      <c r="G347" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H347" s="26"/>
+      <c r="I347" s="27"/>
+      <c r="J347" s="28"/>
+      <c r="K347" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A348" s="29">
+        <v>70</v>
+      </c>
+      <c r="B348" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C348" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D348" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E348" s="31">
+        <v>20</v>
+      </c>
+      <c r="F348" s="13"/>
+      <c r="G348" s="29">
+        <v>70</v>
+      </c>
+      <c r="H348" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I348" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J348" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K348" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="30"/>
+      <c r="B349" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C349" s="34"/>
+      <c r="D349" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E349" s="32"/>
+      <c r="F349" s="14"/>
+      <c r="G349" s="30"/>
+      <c r="H349" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I349" s="34"/>
+      <c r="J349" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K349" s="32"/>
+    </row>
+    <row r="350" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B350" s="22"/>
+      <c r="C350" s="22"/>
+      <c r="D350" s="22"/>
+      <c r="E350" s="22"/>
+      <c r="F350" s="18"/>
+      <c r="G350" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H350" s="22"/>
+      <c r="I350" s="22"/>
+      <c r="J350" s="22"/>
+      <c r="K350" s="22"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B351" s="23"/>
+      <c r="C351" s="24"/>
+      <c r="D351" s="24"/>
+      <c r="E351" s="25"/>
+      <c r="F351" s="17"/>
+      <c r="G351" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H351" s="23"/>
+      <c r="I351" s="24"/>
+      <c r="J351" s="24"/>
+      <c r="K351" s="25"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="24"/>
+      <c r="B352" s="24"/>
+      <c r="C352" s="24"/>
+      <c r="D352" s="24"/>
+      <c r="E352" s="25"/>
+      <c r="F352" s="8"/>
+      <c r="G352" s="24"/>
+      <c r="H352" s="24"/>
+      <c r="I352" s="24"/>
+      <c r="J352" s="24"/>
+      <c r="K352" s="25"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B353" s="26"/>
+      <c r="C353" s="27"/>
+      <c r="D353" s="28"/>
+      <c r="E353" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F353" s="18"/>
+      <c r="G353" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H353" s="26"/>
+      <c r="I353" s="27"/>
+      <c r="J353" s="28"/>
+      <c r="K353" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A354" s="29">
+        <v>70</v>
+      </c>
+      <c r="B354" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C354" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D354" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E354" s="31">
+        <v>20</v>
+      </c>
+      <c r="F354" s="13"/>
+      <c r="G354" s="29">
+        <v>70</v>
+      </c>
+      <c r="H354" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I354" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J354" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K354" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="30"/>
+      <c r="B355" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C355" s="34"/>
+      <c r="D355" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E355" s="32"/>
+      <c r="F355" s="14"/>
+      <c r="G355" s="30"/>
+      <c r="H355" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I355" s="34"/>
+      <c r="J355" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K355" s="32"/>
+    </row>
+    <row r="356" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B356" s="22"/>
+      <c r="C356" s="22"/>
+      <c r="D356" s="22"/>
+      <c r="E356" s="22"/>
+      <c r="F356" s="18"/>
+      <c r="G356" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H356" s="22"/>
+      <c r="I356" s="22"/>
+      <c r="J356" s="22"/>
+      <c r="K356" s="22"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B357" s="23"/>
+      <c r="C357" s="24"/>
+      <c r="D357" s="24"/>
+      <c r="E357" s="25"/>
+      <c r="F357" s="17"/>
+      <c r="G357" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H357" s="23"/>
+      <c r="I357" s="24"/>
+      <c r="J357" s="24"/>
+      <c r="K357" s="25"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="24"/>
+      <c r="B358" s="24"/>
+      <c r="C358" s="24"/>
+      <c r="D358" s="24"/>
+      <c r="E358" s="25"/>
+      <c r="F358" s="8"/>
+      <c r="G358" s="24"/>
+      <c r="H358" s="24"/>
+      <c r="I358" s="24"/>
+      <c r="J358" s="24"/>
+      <c r="K358" s="25"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B359" s="26"/>
+      <c r="C359" s="27"/>
+      <c r="D359" s="28"/>
+      <c r="E359" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F359" s="18"/>
+      <c r="G359" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H359" s="26"/>
+      <c r="I359" s="27"/>
+      <c r="J359" s="28"/>
+      <c r="K359" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A360" s="29">
+        <v>70</v>
+      </c>
+      <c r="B360" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C360" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D360" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E360" s="31">
+        <v>20</v>
+      </c>
+      <c r="F360" s="13"/>
+      <c r="G360" s="29">
+        <v>70</v>
+      </c>
+      <c r="H360" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I360" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J360" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K360" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="30"/>
+      <c r="B361" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C361" s="34"/>
+      <c r="D361" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E361" s="32"/>
+      <c r="F361" s="14"/>
+      <c r="G361" s="30"/>
+      <c r="H361" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I361" s="34"/>
+      <c r="J361" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K361" s="32"/>
+    </row>
+    <row r="362" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B362" s="22"/>
+      <c r="C362" s="22"/>
+      <c r="D362" s="22"/>
+      <c r="E362" s="22"/>
+      <c r="F362" s="18"/>
+      <c r="G362" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H362" s="22"/>
+      <c r="I362" s="22"/>
+      <c r="J362" s="22"/>
+      <c r="K362" s="22"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B363" s="23"/>
+      <c r="C363" s="24"/>
+      <c r="D363" s="24"/>
+      <c r="E363" s="25"/>
+      <c r="F363" s="17"/>
+      <c r="G363" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H363" s="23"/>
+      <c r="I363" s="24"/>
+      <c r="J363" s="24"/>
+      <c r="K363" s="25"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="24"/>
+      <c r="B364" s="24"/>
+      <c r="C364" s="24"/>
+      <c r="D364" s="24"/>
+      <c r="E364" s="25"/>
+      <c r="F364" s="8"/>
+      <c r="G364" s="24"/>
+      <c r="H364" s="24"/>
+      <c r="I364" s="24"/>
+      <c r="J364" s="24"/>
+      <c r="K364" s="25"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B365" s="26"/>
+      <c r="C365" s="27"/>
+      <c r="D365" s="28"/>
+      <c r="E365" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F365" s="18"/>
+      <c r="G365" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H365" s="26"/>
+      <c r="I365" s="27"/>
+      <c r="J365" s="28"/>
+      <c r="K365" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A366" s="29">
+        <v>70</v>
+      </c>
+      <c r="B366" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C366" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D366" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E366" s="31">
+        <v>20</v>
+      </c>
+      <c r="F366" s="13"/>
+      <c r="G366" s="29">
+        <v>70</v>
+      </c>
+      <c r="H366" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I366" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J366" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K366" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="30"/>
+      <c r="B367" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367" s="34"/>
+      <c r="D367" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E367" s="32"/>
+      <c r="F367" s="14"/>
+      <c r="G367" s="30"/>
+      <c r="H367" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I367" s="34"/>
+      <c r="J367" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K367" s="32"/>
+    </row>
+    <row r="368" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B368" s="22"/>
+      <c r="C368" s="22"/>
+      <c r="D368" s="22"/>
+      <c r="E368" s="22"/>
+      <c r="F368" s="18"/>
+      <c r="G368" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H368" s="22"/>
+      <c r="I368" s="22"/>
+      <c r="J368" s="22"/>
+      <c r="K368" s="22"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B369" s="23"/>
+      <c r="C369" s="24"/>
+      <c r="D369" s="24"/>
+      <c r="E369" s="25"/>
+      <c r="F369" s="17"/>
+      <c r="G369" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H369" s="23"/>
+      <c r="I369" s="24"/>
+      <c r="J369" s="24"/>
+      <c r="K369" s="25"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="24"/>
+      <c r="B370" s="24"/>
+      <c r="C370" s="24"/>
+      <c r="D370" s="24"/>
+      <c r="E370" s="25"/>
+      <c r="F370" s="8"/>
+      <c r="G370" s="24"/>
+      <c r="H370" s="24"/>
+      <c r="I370" s="24"/>
+      <c r="J370" s="24"/>
+      <c r="K370" s="25"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B371" s="26"/>
+      <c r="C371" s="27"/>
+      <c r="D371" s="28"/>
+      <c r="E371" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F371" s="18"/>
+      <c r="G371" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H371" s="26"/>
+      <c r="I371" s="27"/>
+      <c r="J371" s="28"/>
+      <c r="K371" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A372" s="29">
+        <v>70</v>
+      </c>
+      <c r="B372" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C372" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D372" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E372" s="31">
+        <v>20</v>
+      </c>
+      <c r="F372" s="13"/>
+      <c r="G372" s="29">
+        <v>70</v>
+      </c>
+      <c r="H372" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I372" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J372" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K372" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="30"/>
+      <c r="B373" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C373" s="34"/>
+      <c r="D373" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E373" s="32"/>
+      <c r="F373" s="14"/>
+      <c r="G373" s="30"/>
+      <c r="H373" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I373" s="34"/>
+      <c r="J373" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K373" s="32"/>
+    </row>
+    <row r="374" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B374" s="22"/>
+      <c r="C374" s="22"/>
+      <c r="D374" s="22"/>
+      <c r="E374" s="22"/>
+      <c r="F374" s="18"/>
+      <c r="G374" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H374" s="22"/>
+      <c r="I374" s="22"/>
+      <c r="J374" s="22"/>
+      <c r="K374" s="22"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B375" s="23"/>
+      <c r="C375" s="24"/>
+      <c r="D375" s="24"/>
+      <c r="E375" s="25"/>
+      <c r="F375" s="17"/>
+      <c r="G375" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H375" s="23"/>
+      <c r="I375" s="24"/>
+      <c r="J375" s="24"/>
+      <c r="K375" s="25"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="24"/>
+      <c r="B376" s="24"/>
+      <c r="C376" s="24"/>
+      <c r="D376" s="24"/>
+      <c r="E376" s="25"/>
+      <c r="F376" s="8"/>
+      <c r="G376" s="24"/>
+      <c r="H376" s="24"/>
+      <c r="I376" s="24"/>
+      <c r="J376" s="24"/>
+      <c r="K376" s="25"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B377" s="26"/>
+      <c r="C377" s="27"/>
+      <c r="D377" s="28"/>
+      <c r="E377" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F377" s="18"/>
+      <c r="G377" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H377" s="26"/>
+      <c r="I377" s="27"/>
+      <c r="J377" s="28"/>
+      <c r="K377" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A378" s="29">
+        <v>70</v>
+      </c>
+      <c r="B378" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C378" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D378" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E378" s="31">
+        <v>20</v>
+      </c>
+      <c r="F378" s="13"/>
+      <c r="G378" s="29">
+        <v>70</v>
+      </c>
+      <c r="H378" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I378" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J378" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K378" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="30"/>
+      <c r="B379" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C379" s="34"/>
+      <c r="D379" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E379" s="32"/>
+      <c r="F379" s="14"/>
+      <c r="G379" s="30"/>
+      <c r="H379" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I379" s="34"/>
+      <c r="J379" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K379" s="32"/>
+    </row>
+    <row r="380" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B380" s="22"/>
+      <c r="C380" s="22"/>
+      <c r="D380" s="22"/>
+      <c r="E380" s="22"/>
+      <c r="F380" s="18"/>
+      <c r="G380" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H380" s="22"/>
+      <c r="I380" s="22"/>
+      <c r="J380" s="22"/>
+      <c r="K380" s="22"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B381" s="23"/>
+      <c r="C381" s="24"/>
+      <c r="D381" s="24"/>
+      <c r="E381" s="25"/>
+      <c r="F381" s="17"/>
+      <c r="G381" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H381" s="23"/>
+      <c r="I381" s="24"/>
+      <c r="J381" s="24"/>
+      <c r="K381" s="25"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="24"/>
+      <c r="B382" s="24"/>
+      <c r="C382" s="24"/>
+      <c r="D382" s="24"/>
+      <c r="E382" s="25"/>
+      <c r="F382" s="8"/>
+      <c r="G382" s="24"/>
+      <c r="H382" s="24"/>
+      <c r="I382" s="24"/>
+      <c r="J382" s="24"/>
+      <c r="K382" s="25"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B383" s="26"/>
+      <c r="C383" s="27"/>
+      <c r="D383" s="28"/>
+      <c r="E383" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F383" s="18"/>
+      <c r="G383" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H383" s="26"/>
+      <c r="I383" s="27"/>
+      <c r="J383" s="28"/>
+      <c r="K383" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A384" s="29">
+        <v>70</v>
+      </c>
+      <c r="B384" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C384" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D384" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E384" s="31">
+        <v>20</v>
+      </c>
+      <c r="F384" s="13"/>
+      <c r="G384" s="29">
+        <v>70</v>
+      </c>
+      <c r="H384" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I384" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J384" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K384" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="30"/>
+      <c r="B385" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C385" s="34"/>
+      <c r="D385" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E385" s="32"/>
+      <c r="F385" s="14"/>
+      <c r="G385" s="30"/>
+      <c r="H385" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I385" s="34"/>
+      <c r="J385" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K385" s="32"/>
+    </row>
+    <row r="386" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B386" s="22"/>
+      <c r="C386" s="22"/>
+      <c r="D386" s="22"/>
+      <c r="E386" s="22"/>
+      <c r="F386" s="18"/>
+      <c r="G386" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H386" s="22"/>
+      <c r="I386" s="22"/>
+      <c r="J386" s="22"/>
+      <c r="K386" s="22"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B387" s="23"/>
+      <c r="C387" s="24"/>
+      <c r="D387" s="24"/>
+      <c r="E387" s="25"/>
+      <c r="F387" s="17"/>
+      <c r="G387" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H387" s="23"/>
+      <c r="I387" s="24"/>
+      <c r="J387" s="24"/>
+      <c r="K387" s="25"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="24"/>
+      <c r="B388" s="24"/>
+      <c r="C388" s="24"/>
+      <c r="D388" s="24"/>
+      <c r="E388" s="25"/>
+      <c r="F388" s="8"/>
+      <c r="G388" s="24"/>
+      <c r="H388" s="24"/>
+      <c r="I388" s="24"/>
+      <c r="J388" s="24"/>
+      <c r="K388" s="25"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B389" s="26"/>
+      <c r="C389" s="27"/>
+      <c r="D389" s="28"/>
+      <c r="E389" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F389" s="18"/>
+      <c r="G389" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H389" s="26"/>
+      <c r="I389" s="27"/>
+      <c r="J389" s="28"/>
+      <c r="K389" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A390" s="29">
+        <v>70</v>
+      </c>
+      <c r="B390" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C390" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D390" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E390" s="31">
+        <v>20</v>
+      </c>
+      <c r="F390" s="13"/>
+      <c r="G390" s="29">
+        <v>70</v>
+      </c>
+      <c r="H390" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I390" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J390" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K390" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="30"/>
+      <c r="B391" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C391" s="34"/>
+      <c r="D391" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E391" s="32"/>
+      <c r="F391" s="14"/>
+      <c r="G391" s="30"/>
+      <c r="H391" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I391" s="34"/>
+      <c r="J391" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K391" s="32"/>
+    </row>
+    <row r="392" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B392" s="22"/>
+      <c r="C392" s="22"/>
+      <c r="D392" s="22"/>
+      <c r="E392" s="22"/>
+      <c r="F392" s="18"/>
+      <c r="G392" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H392" s="22"/>
+      <c r="I392" s="22"/>
+      <c r="J392" s="22"/>
+      <c r="K392" s="22"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B393" s="23"/>
+      <c r="C393" s="24"/>
+      <c r="D393" s="24"/>
+      <c r="E393" s="25"/>
+      <c r="F393" s="17"/>
+      <c r="G393" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H393" s="23"/>
+      <c r="I393" s="24"/>
+      <c r="J393" s="24"/>
+      <c r="K393" s="25"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" s="24"/>
+      <c r="B394" s="24"/>
+      <c r="C394" s="24"/>
+      <c r="D394" s="24"/>
+      <c r="E394" s="25"/>
+      <c r="F394" s="8"/>
+      <c r="G394" s="24"/>
+      <c r="H394" s="24"/>
+      <c r="I394" s="24"/>
+      <c r="J394" s="24"/>
+      <c r="K394" s="25"/>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A395" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B395" s="26"/>
+      <c r="C395" s="27"/>
+      <c r="D395" s="28"/>
+      <c r="E395" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F395" s="18"/>
+      <c r="G395" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H395" s="26"/>
+      <c r="I395" s="27"/>
+      <c r="J395" s="28"/>
+      <c r="K395" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A396" s="29">
+        <v>70</v>
+      </c>
+      <c r="B396" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C396" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D396" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E396" s="31">
+        <v>20</v>
+      </c>
+      <c r="F396" s="13"/>
+      <c r="G396" s="29">
+        <v>70</v>
+      </c>
+      <c r="H396" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I396" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J396" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K396" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="30"/>
+      <c r="B397" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C397" s="34"/>
+      <c r="D397" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E397" s="32"/>
+      <c r="F397" s="14"/>
+      <c r="G397" s="30"/>
+      <c r="H397" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I397" s="34"/>
+      <c r="J397" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K397" s="32"/>
+    </row>
+    <row r="398" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B398" s="22"/>
+      <c r="C398" s="22"/>
+      <c r="D398" s="22"/>
+      <c r="E398" s="22"/>
+      <c r="F398" s="18"/>
+      <c r="G398" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H398" s="22"/>
+      <c r="I398" s="22"/>
+      <c r="J398" s="22"/>
+      <c r="K398" s="22"/>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B399" s="23"/>
+      <c r="C399" s="24"/>
+      <c r="D399" s="24"/>
+      <c r="E399" s="25"/>
+      <c r="F399" s="17"/>
+      <c r="G399" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H399" s="23"/>
+      <c r="I399" s="24"/>
+      <c r="J399" s="24"/>
+      <c r="K399" s="25"/>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" s="24"/>
+      <c r="B400" s="24"/>
+      <c r="C400" s="24"/>
+      <c r="D400" s="24"/>
+      <c r="E400" s="25"/>
+      <c r="F400" s="8"/>
+      <c r="G400" s="24"/>
+      <c r="H400" s="24"/>
+      <c r="I400" s="24"/>
+      <c r="J400" s="24"/>
+      <c r="K400" s="25"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B401" s="26"/>
+      <c r="C401" s="27"/>
+      <c r="D401" s="28"/>
+      <c r="E401" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F401" s="18"/>
+      <c r="G401" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H401" s="26"/>
+      <c r="I401" s="27"/>
+      <c r="J401" s="28"/>
+      <c r="K401" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A402" s="29">
+        <v>70</v>
+      </c>
+      <c r="B402" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C402" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D402" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E402" s="31">
+        <v>20</v>
+      </c>
+      <c r="F402" s="13"/>
+      <c r="G402" s="29">
+        <v>70</v>
+      </c>
+      <c r="H402" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I402" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J402" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K402" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="30"/>
+      <c r="B403" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C403" s="34"/>
+      <c r="D403" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E403" s="32"/>
+      <c r="F403" s="14"/>
+      <c r="G403" s="30"/>
+      <c r="H403" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I403" s="34"/>
+      <c r="J403" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K403" s="32"/>
+    </row>
+    <row r="404" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B404" s="22"/>
+      <c r="C404" s="22"/>
+      <c r="D404" s="22"/>
+      <c r="E404" s="22"/>
+      <c r="F404" s="18"/>
+      <c r="G404" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H404" s="22"/>
+      <c r="I404" s="22"/>
+      <c r="J404" s="22"/>
+      <c r="K404" s="22"/>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A405" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B405" s="23"/>
+      <c r="C405" s="24"/>
+      <c r="D405" s="24"/>
+      <c r="E405" s="25"/>
+      <c r="F405" s="17"/>
+      <c r="G405" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H405" s="23"/>
+      <c r="I405" s="24"/>
+      <c r="J405" s="24"/>
+      <c r="K405" s="25"/>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" s="24"/>
+      <c r="B406" s="24"/>
+      <c r="C406" s="24"/>
+      <c r="D406" s="24"/>
+      <c r="E406" s="25"/>
+      <c r="F406" s="8"/>
+      <c r="G406" s="24"/>
+      <c r="H406" s="24"/>
+      <c r="I406" s="24"/>
+      <c r="J406" s="24"/>
+      <c r="K406" s="25"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B407" s="26"/>
+      <c r="C407" s="27"/>
+      <c r="D407" s="28"/>
+      <c r="E407" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F407" s="18"/>
+      <c r="G407" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H407" s="26"/>
+      <c r="I407" s="27"/>
+      <c r="J407" s="28"/>
+      <c r="K407" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A408" s="29">
+        <v>70</v>
+      </c>
+      <c r="B408" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C408" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D408" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E408" s="31">
+        <v>20</v>
+      </c>
+      <c r="F408" s="13"/>
+      <c r="G408" s="29">
+        <v>70</v>
+      </c>
+      <c r="H408" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I408" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J408" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K408" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="30"/>
+      <c r="B409" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C409" s="34"/>
+      <c r="D409" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E409" s="32"/>
+      <c r="F409" s="14"/>
+      <c r="G409" s="30"/>
+      <c r="H409" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I409" s="34"/>
+      <c r="J409" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K409" s="32"/>
+    </row>
+    <row r="410" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
+      <c r="D410" s="22"/>
+      <c r="E410" s="22"/>
+      <c r="F410" s="18"/>
+      <c r="G410" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H410" s="22"/>
+      <c r="I410" s="22"/>
+      <c r="J410" s="22"/>
+      <c r="K410" s="22"/>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B411" s="23"/>
+      <c r="C411" s="24"/>
+      <c r="D411" s="24"/>
+      <c r="E411" s="25"/>
+      <c r="F411" s="17"/>
+      <c r="G411" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H411" s="23"/>
+      <c r="I411" s="24"/>
+      <c r="J411" s="24"/>
+      <c r="K411" s="25"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="24"/>
+      <c r="B412" s="24"/>
+      <c r="C412" s="24"/>
+      <c r="D412" s="24"/>
+      <c r="E412" s="25"/>
+      <c r="F412" s="8"/>
+      <c r="G412" s="24"/>
+      <c r="H412" s="24"/>
+      <c r="I412" s="24"/>
+      <c r="J412" s="24"/>
+      <c r="K412" s="25"/>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B413" s="26"/>
+      <c r="C413" s="27"/>
+      <c r="D413" s="28"/>
+      <c r="E413" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F413" s="18"/>
+      <c r="G413" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H413" s="26"/>
+      <c r="I413" s="27"/>
+      <c r="J413" s="28"/>
+      <c r="K413" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A414" s="29">
+        <v>70</v>
+      </c>
+      <c r="B414" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C414" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D414" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E414" s="31">
+        <v>20</v>
+      </c>
+      <c r="F414" s="13"/>
+      <c r="G414" s="29">
+        <v>70</v>
+      </c>
+      <c r="H414" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I414" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J414" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K414" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="30"/>
+      <c r="B415" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C415" s="34"/>
+      <c r="D415" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E415" s="32"/>
+      <c r="F415" s="14"/>
+      <c r="G415" s="30"/>
+      <c r="H415" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I415" s="34"/>
+      <c r="J415" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K415" s="32"/>
+    </row>
+    <row r="416" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B416" s="22"/>
+      <c r="C416" s="22"/>
+      <c r="D416" s="22"/>
+      <c r="E416" s="22"/>
+      <c r="F416" s="18"/>
+      <c r="G416" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H416" s="22"/>
+      <c r="I416" s="22"/>
+      <c r="J416" s="22"/>
+      <c r="K416" s="22"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B417" s="23"/>
+      <c r="C417" s="24"/>
+      <c r="D417" s="24"/>
+      <c r="E417" s="25"/>
+      <c r="F417" s="17"/>
+      <c r="G417" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H417" s="23"/>
+      <c r="I417" s="24"/>
+      <c r="J417" s="24"/>
+      <c r="K417" s="25"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="24"/>
+      <c r="B418" s="24"/>
+      <c r="C418" s="24"/>
+      <c r="D418" s="24"/>
+      <c r="E418" s="25"/>
+      <c r="F418" s="8"/>
+      <c r="G418" s="24"/>
+      <c r="H418" s="24"/>
+      <c r="I418" s="24"/>
+      <c r="J418" s="24"/>
+      <c r="K418" s="25"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B419" s="26"/>
+      <c r="C419" s="27"/>
+      <c r="D419" s="28"/>
+      <c r="E419" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F419" s="18"/>
+      <c r="G419" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H419" s="26"/>
+      <c r="I419" s="27"/>
+      <c r="J419" s="28"/>
+      <c r="K419" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A420" s="29">
+        <v>70</v>
+      </c>
+      <c r="B420" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C420" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D420" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E420" s="31">
+        <v>20</v>
+      </c>
+      <c r="F420" s="13"/>
+      <c r="G420" s="29">
+        <v>70</v>
+      </c>
+      <c r="H420" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I420" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J420" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K420" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="30"/>
+      <c r="B421" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C421" s="34"/>
+      <c r="D421" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E421" s="32"/>
+      <c r="F421" s="14"/>
+      <c r="G421" s="30"/>
+      <c r="H421" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I421" s="34"/>
+      <c r="J421" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K421" s="32"/>
+    </row>
+    <row r="422" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B422" s="22"/>
+      <c r="C422" s="22"/>
+      <c r="D422" s="22"/>
+      <c r="E422" s="22"/>
+      <c r="F422" s="18"/>
+      <c r="G422" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H422" s="22"/>
+      <c r="I422" s="22"/>
+      <c r="J422" s="22"/>
+      <c r="K422" s="22"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B423" s="23"/>
+      <c r="C423" s="24"/>
+      <c r="D423" s="24"/>
+      <c r="E423" s="25"/>
+      <c r="F423" s="17"/>
+      <c r="G423" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H423" s="23"/>
+      <c r="I423" s="24"/>
+      <c r="J423" s="24"/>
+      <c r="K423" s="25"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="24"/>
+      <c r="B424" s="24"/>
+      <c r="C424" s="24"/>
+      <c r="D424" s="24"/>
+      <c r="E424" s="25"/>
+      <c r="F424" s="8"/>
+      <c r="G424" s="24"/>
+      <c r="H424" s="24"/>
+      <c r="I424" s="24"/>
+      <c r="J424" s="24"/>
+      <c r="K424" s="25"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B425" s="26"/>
+      <c r="C425" s="27"/>
+      <c r="D425" s="28"/>
+      <c r="E425" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F425" s="18"/>
+      <c r="G425" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H425" s="26"/>
+      <c r="I425" s="27"/>
+      <c r="J425" s="28"/>
+      <c r="K425" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A426" s="29">
+        <v>70</v>
+      </c>
+      <c r="B426" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C426" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D426" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E426" s="31">
+        <v>20</v>
+      </c>
+      <c r="F426" s="13"/>
+      <c r="G426" s="29">
+        <v>70</v>
+      </c>
+      <c r="H426" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I426" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J426" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K426" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="30"/>
+      <c r="B427" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C427" s="34"/>
+      <c r="D427" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E427" s="32"/>
+      <c r="F427" s="14"/>
+      <c r="G427" s="30"/>
+      <c r="H427" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I427" s="34"/>
+      <c r="J427" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K427" s="32"/>
+    </row>
+    <row r="428" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B428" s="22"/>
+      <c r="C428" s="22"/>
+      <c r="D428" s="22"/>
+      <c r="E428" s="22"/>
+      <c r="F428" s="18"/>
+      <c r="G428" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H428" s="22"/>
+      <c r="I428" s="22"/>
+      <c r="J428" s="22"/>
+      <c r="K428" s="22"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A429" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B429" s="23"/>
+      <c r="C429" s="24"/>
+      <c r="D429" s="24"/>
+      <c r="E429" s="25"/>
+      <c r="F429" s="17"/>
+      <c r="G429" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H429" s="23"/>
+      <c r="I429" s="24"/>
+      <c r="J429" s="24"/>
+      <c r="K429" s="25"/>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A430" s="24"/>
+      <c r="B430" s="24"/>
+      <c r="C430" s="24"/>
+      <c r="D430" s="24"/>
+      <c r="E430" s="25"/>
+      <c r="F430" s="8"/>
+      <c r="G430" s="24"/>
+      <c r="H430" s="24"/>
+      <c r="I430" s="24"/>
+      <c r="J430" s="24"/>
+      <c r="K430" s="25"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B431" s="26"/>
+      <c r="C431" s="27"/>
+      <c r="D431" s="28"/>
+      <c r="E431" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F431" s="18"/>
+      <c r="G431" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H431" s="26"/>
+      <c r="I431" s="27"/>
+      <c r="J431" s="28"/>
+      <c r="K431" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A432" s="29">
+        <v>70</v>
+      </c>
+      <c r="B432" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C432" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D432" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E432" s="31">
+        <v>20</v>
+      </c>
+      <c r="F432" s="13"/>
+      <c r="G432" s="29">
+        <v>70</v>
+      </c>
+      <c r="H432" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I432" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J432" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K432" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="30"/>
+      <c r="B433" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C433" s="34"/>
+      <c r="D433" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E433" s="32"/>
+      <c r="F433" s="14"/>
+      <c r="G433" s="30"/>
+      <c r="H433" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I433" s="34"/>
+      <c r="J433" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K433" s="32"/>
+    </row>
+    <row r="434" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B434" s="22"/>
+      <c r="C434" s="22"/>
+      <c r="D434" s="22"/>
+      <c r="E434" s="22"/>
+      <c r="F434" s="18"/>
+      <c r="G434" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H434" s="22"/>
+      <c r="I434" s="22"/>
+      <c r="J434" s="22"/>
+      <c r="K434" s="22"/>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A435" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B435" s="23"/>
+      <c r="C435" s="24"/>
+      <c r="D435" s="24"/>
+      <c r="E435" s="25"/>
+      <c r="F435" s="17"/>
+      <c r="G435" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H435" s="23"/>
+      <c r="I435" s="24"/>
+      <c r="J435" s="24"/>
+      <c r="K435" s="25"/>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A436" s="24"/>
+      <c r="B436" s="24"/>
+      <c r="C436" s="24"/>
+      <c r="D436" s="24"/>
+      <c r="E436" s="25"/>
+      <c r="F436" s="8"/>
+      <c r="G436" s="24"/>
+      <c r="H436" s="24"/>
+      <c r="I436" s="24"/>
+      <c r="J436" s="24"/>
+      <c r="K436" s="25"/>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B437" s="26"/>
+      <c r="C437" s="27"/>
+      <c r="D437" s="28"/>
+      <c r="E437" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F437" s="18"/>
+      <c r="G437" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H437" s="26"/>
+      <c r="I437" s="27"/>
+      <c r="J437" s="28"/>
+      <c r="K437" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A438" s="29">
+        <v>70</v>
+      </c>
+      <c r="B438" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C438" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D438" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E438" s="31">
+        <v>20</v>
+      </c>
+      <c r="F438" s="13"/>
+      <c r="G438" s="29">
+        <v>70</v>
+      </c>
+      <c r="H438" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I438" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J438" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K438" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="30"/>
+      <c r="B439" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439" s="34"/>
+      <c r="D439" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E439" s="32"/>
+      <c r="F439" s="14"/>
+      <c r="G439" s="30"/>
+      <c r="H439" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I439" s="34"/>
+      <c r="J439" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K439" s="32"/>
+    </row>
+    <row r="440" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B440" s="22"/>
+      <c r="C440" s="22"/>
+      <c r="D440" s="22"/>
+      <c r="E440" s="22"/>
+      <c r="F440" s="18"/>
+      <c r="G440" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H440" s="22"/>
+      <c r="I440" s="22"/>
+      <c r="J440" s="22"/>
+      <c r="K440" s="22"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B441" s="23"/>
+      <c r="C441" s="24"/>
+      <c r="D441" s="24"/>
+      <c r="E441" s="25"/>
+      <c r="F441" s="17"/>
+      <c r="G441" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H441" s="23"/>
+      <c r="I441" s="24"/>
+      <c r="J441" s="24"/>
+      <c r="K441" s="25"/>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A442" s="24"/>
+      <c r="B442" s="24"/>
+      <c r="C442" s="24"/>
+      <c r="D442" s="24"/>
+      <c r="E442" s="25"/>
+      <c r="F442" s="8"/>
+      <c r="G442" s="24"/>
+      <c r="H442" s="24"/>
+      <c r="I442" s="24"/>
+      <c r="J442" s="24"/>
+      <c r="K442" s="25"/>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A443" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B443" s="26"/>
+      <c r="C443" s="27"/>
+      <c r="D443" s="28"/>
+      <c r="E443" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F443" s="18"/>
+      <c r="G443" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H443" s="26"/>
+      <c r="I443" s="27"/>
+      <c r="J443" s="28"/>
+      <c r="K443" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A444" s="29">
+        <v>70</v>
+      </c>
+      <c r="B444" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C444" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D444" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E444" s="31">
+        <v>20</v>
+      </c>
+      <c r="F444" s="13"/>
+      <c r="G444" s="29">
+        <v>70</v>
+      </c>
+      <c r="H444" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I444" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J444" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K444" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="30"/>
+      <c r="B445" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C445" s="34"/>
+      <c r="D445" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E445" s="32"/>
+      <c r="F445" s="14"/>
+      <c r="G445" s="30"/>
+      <c r="H445" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I445" s="34"/>
+      <c r="J445" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K445" s="32"/>
+    </row>
+    <row r="446" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B446" s="22"/>
+      <c r="C446" s="22"/>
+      <c r="D446" s="22"/>
+      <c r="E446" s="22"/>
+      <c r="F446" s="18"/>
+      <c r="G446" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H446" s="22"/>
+      <c r="I446" s="22"/>
+      <c r="J446" s="22"/>
+      <c r="K446" s="22"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B447" s="23"/>
+      <c r="C447" s="24"/>
+      <c r="D447" s="24"/>
+      <c r="E447" s="25"/>
+      <c r="F447" s="17"/>
+      <c r="G447" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H447" s="23"/>
+      <c r="I447" s="24"/>
+      <c r="J447" s="24"/>
+      <c r="K447" s="25"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A448" s="24"/>
+      <c r="B448" s="24"/>
+      <c r="C448" s="24"/>
+      <c r="D448" s="24"/>
+      <c r="E448" s="25"/>
+      <c r="F448" s="8"/>
+      <c r="G448" s="24"/>
+      <c r="H448" s="24"/>
+      <c r="I448" s="24"/>
+      <c r="J448" s="24"/>
+      <c r="K448" s="25"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A449" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B449" s="26"/>
+      <c r="C449" s="27"/>
+      <c r="D449" s="28"/>
+      <c r="E449" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F449" s="18"/>
+      <c r="G449" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H449" s="26"/>
+      <c r="I449" s="27"/>
+      <c r="J449" s="28"/>
+      <c r="K449" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A450" s="29">
+        <v>70</v>
+      </c>
+      <c r="B450" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C450" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D450" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E450" s="31">
+        <v>20</v>
+      </c>
+      <c r="F450" s="13"/>
+      <c r="G450" s="29">
+        <v>70</v>
+      </c>
+      <c r="H450" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I450" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J450" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K450" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="30"/>
+      <c r="B451" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C451" s="34"/>
+      <c r="D451" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E451" s="32"/>
+      <c r="F451" s="14"/>
+      <c r="G451" s="30"/>
+      <c r="H451" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I451" s="34"/>
+      <c r="J451" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K451" s="32"/>
+    </row>
+    <row r="452" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B452" s="22"/>
+      <c r="C452" s="22"/>
+      <c r="D452" s="22"/>
+      <c r="E452" s="22"/>
+      <c r="F452" s="18"/>
+      <c r="G452" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H452" s="22"/>
+      <c r="I452" s="22"/>
+      <c r="J452" s="22"/>
+      <c r="K452" s="22"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A453" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B453" s="23"/>
+      <c r="C453" s="24"/>
+      <c r="D453" s="24"/>
+      <c r="E453" s="25"/>
+      <c r="F453" s="17"/>
+      <c r="G453" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H453" s="23"/>
+      <c r="I453" s="24"/>
+      <c r="J453" s="24"/>
+      <c r="K453" s="25"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A454" s="24"/>
+      <c r="B454" s="24"/>
+      <c r="C454" s="24"/>
+      <c r="D454" s="24"/>
+      <c r="E454" s="25"/>
+      <c r="F454" s="8"/>
+      <c r="G454" s="24"/>
+      <c r="H454" s="24"/>
+      <c r="I454" s="24"/>
+      <c r="J454" s="24"/>
+      <c r="K454" s="25"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A455" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B455" s="26"/>
+      <c r="C455" s="27"/>
+      <c r="D455" s="28"/>
+      <c r="E455" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F455" s="18"/>
+      <c r="G455" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H455" s="26"/>
+      <c r="I455" s="27"/>
+      <c r="J455" s="28"/>
+      <c r="K455" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A456" s="29">
+        <v>70</v>
+      </c>
+      <c r="B456" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C456" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D456" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E456" s="31">
+        <v>20</v>
+      </c>
+      <c r="F456" s="13"/>
+      <c r="G456" s="29">
+        <v>70</v>
+      </c>
+      <c r="H456" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I456" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J456" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K456" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="30"/>
+      <c r="B457" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C457" s="34"/>
+      <c r="D457" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E457" s="32"/>
+      <c r="F457" s="14"/>
+      <c r="G457" s="30"/>
+      <c r="H457" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I457" s="34"/>
+      <c r="J457" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K457" s="32"/>
+    </row>
+    <row r="458" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B458" s="22"/>
+      <c r="C458" s="22"/>
+      <c r="D458" s="22"/>
+      <c r="E458" s="22"/>
+      <c r="F458" s="18"/>
+      <c r="G458" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H458" s="22"/>
+      <c r="I458" s="22"/>
+      <c r="J458" s="22"/>
+      <c r="K458" s="22"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B459" s="23"/>
+      <c r="C459" s="24"/>
+      <c r="D459" s="24"/>
+      <c r="E459" s="25"/>
+      <c r="F459" s="17"/>
+      <c r="G459" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H459" s="23"/>
+      <c r="I459" s="24"/>
+      <c r="J459" s="24"/>
+      <c r="K459" s="25"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460" s="24"/>
+      <c r="B460" s="24"/>
+      <c r="C460" s="24"/>
+      <c r="D460" s="24"/>
+      <c r="E460" s="25"/>
+      <c r="F460" s="8"/>
+      <c r="G460" s="24"/>
+      <c r="H460" s="24"/>
+      <c r="I460" s="24"/>
+      <c r="J460" s="24"/>
+      <c r="K460" s="25"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B461" s="26"/>
+      <c r="C461" s="27"/>
+      <c r="D461" s="28"/>
+      <c r="E461" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F461" s="18"/>
+      <c r="G461" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H461" s="26"/>
+      <c r="I461" s="27"/>
+      <c r="J461" s="28"/>
+      <c r="K461" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A462" s="29">
+        <v>70</v>
+      </c>
+      <c r="B462" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C462" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D462" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E462" s="31">
+        <v>20</v>
+      </c>
+      <c r="F462" s="13"/>
+      <c r="G462" s="29">
+        <v>70</v>
+      </c>
+      <c r="H462" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I462" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J462" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K462" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="30"/>
+      <c r="B463" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C463" s="34"/>
+      <c r="D463" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E463" s="32"/>
+      <c r="F463" s="14"/>
+      <c r="G463" s="30"/>
+      <c r="H463" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I463" s="34"/>
+      <c r="J463" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K463" s="32"/>
+    </row>
+    <row r="464" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B464" s="22"/>
+      <c r="C464" s="22"/>
+      <c r="D464" s="22"/>
+      <c r="E464" s="22"/>
+      <c r="F464" s="18"/>
+      <c r="G464" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H464" s="22"/>
+      <c r="I464" s="22"/>
+      <c r="J464" s="22"/>
+      <c r="K464" s="22"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B465" s="23"/>
+      <c r="C465" s="24"/>
+      <c r="D465" s="24"/>
+      <c r="E465" s="25"/>
+      <c r="F465" s="17"/>
+      <c r="G465" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H465" s="23"/>
+      <c r="I465" s="24"/>
+      <c r="J465" s="24"/>
+      <c r="K465" s="25"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A466" s="24"/>
+      <c r="B466" s="24"/>
+      <c r="C466" s="24"/>
+      <c r="D466" s="24"/>
+      <c r="E466" s="25"/>
+      <c r="F466" s="8"/>
+      <c r="G466" s="24"/>
+      <c r="H466" s="24"/>
+      <c r="I466" s="24"/>
+      <c r="J466" s="24"/>
+      <c r="K466" s="25"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A467" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B467" s="26"/>
+      <c r="C467" s="27"/>
+      <c r="D467" s="28"/>
+      <c r="E467" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F467" s="18"/>
+      <c r="G467" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H467" s="26"/>
+      <c r="I467" s="27"/>
+      <c r="J467" s="28"/>
+      <c r="K467" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A468" s="29">
+        <v>70</v>
+      </c>
+      <c r="B468" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C468" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D468" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E468" s="31">
+        <v>20</v>
+      </c>
+      <c r="F468" s="13"/>
+      <c r="G468" s="29">
+        <v>70</v>
+      </c>
+      <c r="H468" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I468" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J468" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K468" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="30"/>
+      <c r="B469" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C469" s="34"/>
+      <c r="D469" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E469" s="32"/>
+      <c r="F469" s="14"/>
+      <c r="G469" s="30"/>
+      <c r="H469" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I469" s="34"/>
+      <c r="J469" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K469" s="32"/>
+    </row>
+    <row r="470" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B470" s="22"/>
+      <c r="C470" s="22"/>
+      <c r="D470" s="22"/>
+      <c r="E470" s="22"/>
+      <c r="F470" s="18"/>
+      <c r="G470" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H470" s="22"/>
+      <c r="I470" s="22"/>
+      <c r="J470" s="22"/>
+      <c r="K470" s="22"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B471" s="23"/>
+      <c r="C471" s="24"/>
+      <c r="D471" s="24"/>
+      <c r="E471" s="25"/>
+      <c r="F471" s="17"/>
+      <c r="G471" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H471" s="23"/>
+      <c r="I471" s="24"/>
+      <c r="J471" s="24"/>
+      <c r="K471" s="25"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" s="24"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
+      <c r="D472" s="24"/>
+      <c r="E472" s="25"/>
+      <c r="F472" s="8"/>
+      <c r="G472" s="24"/>
+      <c r="H472" s="24"/>
+      <c r="I472" s="24"/>
+      <c r="J472" s="24"/>
+      <c r="K472" s="25"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B473" s="26"/>
+      <c r="C473" s="27"/>
+      <c r="D473" s="28"/>
+      <c r="E473" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F473" s="18"/>
+      <c r="G473" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H473" s="26"/>
+      <c r="I473" s="27"/>
+      <c r="J473" s="28"/>
+      <c r="K473" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A474" s="29">
+        <v>70</v>
+      </c>
+      <c r="B474" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C474" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D474" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E474" s="31">
+        <v>20</v>
+      </c>
+      <c r="F474" s="13"/>
+      <c r="G474" s="29">
+        <v>70</v>
+      </c>
+      <c r="H474" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I474" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J474" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K474" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="30"/>
+      <c r="B475" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C475" s="34"/>
+      <c r="D475" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E475" s="32"/>
+      <c r="F475" s="14"/>
+      <c r="G475" s="30"/>
+      <c r="H475" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I475" s="34"/>
+      <c r="J475" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K475" s="32"/>
+    </row>
+    <row r="476" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B476" s="22"/>
+      <c r="C476" s="22"/>
+      <c r="D476" s="22"/>
+      <c r="E476" s="22"/>
+      <c r="F476" s="18"/>
+      <c r="G476" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H476" s="22"/>
+      <c r="I476" s="22"/>
+      <c r="J476" s="22"/>
+      <c r="K476" s="22"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B477" s="23"/>
+      <c r="C477" s="24"/>
+      <c r="D477" s="24"/>
+      <c r="E477" s="25"/>
+      <c r="F477" s="17"/>
+      <c r="G477" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H477" s="23"/>
+      <c r="I477" s="24"/>
+      <c r="J477" s="24"/>
+      <c r="K477" s="25"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" s="24"/>
+      <c r="B478" s="24"/>
+      <c r="C478" s="24"/>
+      <c r="D478" s="24"/>
+      <c r="E478" s="25"/>
+      <c r="F478" s="8"/>
+      <c r="G478" s="24"/>
+      <c r="H478" s="24"/>
+      <c r="I478" s="24"/>
+      <c r="J478" s="24"/>
+      <c r="K478" s="25"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B479" s="26"/>
+      <c r="C479" s="27"/>
+      <c r="D479" s="28"/>
+      <c r="E479" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F479" s="18"/>
+      <c r="G479" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H479" s="26"/>
+      <c r="I479" s="27"/>
+      <c r="J479" s="28"/>
+      <c r="K479" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A480" s="29">
+        <v>70</v>
+      </c>
+      <c r="B480" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C480" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D480" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E480" s="31">
+        <v>20</v>
+      </c>
+      <c r="F480" s="13"/>
+      <c r="G480" s="29">
+        <v>70</v>
+      </c>
+      <c r="H480" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I480" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J480" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K480" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="30"/>
+      <c r="B481" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C481" s="34"/>
+      <c r="D481" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E481" s="32"/>
+      <c r="F481" s="14"/>
+      <c r="G481" s="30"/>
+      <c r="H481" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I481" s="34"/>
+      <c r="J481" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K481" s="32"/>
+    </row>
+    <row r="482" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="280">
+  <mergeCells count="1120">
+    <mergeCell ref="A476:E476"/>
+    <mergeCell ref="G476:K476"/>
+    <mergeCell ref="B477:E477"/>
+    <mergeCell ref="H477:K477"/>
+    <mergeCell ref="A478:E478"/>
+    <mergeCell ref="G478:K478"/>
+    <mergeCell ref="B479:D479"/>
+    <mergeCell ref="H479:J479"/>
+    <mergeCell ref="A480:A481"/>
+    <mergeCell ref="E480:E481"/>
+    <mergeCell ref="G480:G481"/>
+    <mergeCell ref="K480:K481"/>
+    <mergeCell ref="B481:C481"/>
+    <mergeCell ref="H481:I481"/>
+    <mergeCell ref="A470:E470"/>
+    <mergeCell ref="G470:K470"/>
+    <mergeCell ref="B471:E471"/>
+    <mergeCell ref="H471:K471"/>
+    <mergeCell ref="A472:E472"/>
+    <mergeCell ref="G472:K472"/>
+    <mergeCell ref="B473:D473"/>
+    <mergeCell ref="H473:J473"/>
+    <mergeCell ref="A474:A475"/>
+    <mergeCell ref="E474:E475"/>
+    <mergeCell ref="G474:G475"/>
+    <mergeCell ref="K474:K475"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="H475:I475"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="G464:K464"/>
+    <mergeCell ref="B465:E465"/>
+    <mergeCell ref="H465:K465"/>
+    <mergeCell ref="A466:E466"/>
+    <mergeCell ref="G466:K466"/>
+    <mergeCell ref="B467:D467"/>
+    <mergeCell ref="H467:J467"/>
+    <mergeCell ref="A468:A469"/>
+    <mergeCell ref="E468:E469"/>
+    <mergeCell ref="G468:G469"/>
+    <mergeCell ref="K468:K469"/>
+    <mergeCell ref="B469:C469"/>
+    <mergeCell ref="H469:I469"/>
+    <mergeCell ref="A458:E458"/>
+    <mergeCell ref="G458:K458"/>
+    <mergeCell ref="B459:E459"/>
+    <mergeCell ref="H459:K459"/>
+    <mergeCell ref="A460:E460"/>
+    <mergeCell ref="G460:K460"/>
+    <mergeCell ref="B461:D461"/>
+    <mergeCell ref="H461:J461"/>
+    <mergeCell ref="A462:A463"/>
+    <mergeCell ref="E462:E463"/>
+    <mergeCell ref="G462:G463"/>
+    <mergeCell ref="K462:K463"/>
+    <mergeCell ref="B463:C463"/>
+    <mergeCell ref="H463:I463"/>
+    <mergeCell ref="A452:E452"/>
+    <mergeCell ref="G452:K452"/>
+    <mergeCell ref="B453:E453"/>
+    <mergeCell ref="H453:K453"/>
+    <mergeCell ref="A454:E454"/>
+    <mergeCell ref="G454:K454"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="H455:J455"/>
+    <mergeCell ref="A456:A457"/>
+    <mergeCell ref="E456:E457"/>
+    <mergeCell ref="G456:G457"/>
+    <mergeCell ref="K456:K457"/>
+    <mergeCell ref="B457:C457"/>
+    <mergeCell ref="H457:I457"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="G446:K446"/>
+    <mergeCell ref="B447:E447"/>
+    <mergeCell ref="H447:K447"/>
+    <mergeCell ref="A448:E448"/>
+    <mergeCell ref="G448:K448"/>
+    <mergeCell ref="B449:D449"/>
+    <mergeCell ref="H449:J449"/>
+    <mergeCell ref="A450:A451"/>
+    <mergeCell ref="E450:E451"/>
+    <mergeCell ref="G450:G451"/>
+    <mergeCell ref="K450:K451"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="H451:I451"/>
+    <mergeCell ref="A440:E440"/>
+    <mergeCell ref="G440:K440"/>
+    <mergeCell ref="B441:E441"/>
+    <mergeCell ref="H441:K441"/>
+    <mergeCell ref="A442:E442"/>
+    <mergeCell ref="G442:K442"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="H443:J443"/>
+    <mergeCell ref="A444:A445"/>
+    <mergeCell ref="E444:E445"/>
+    <mergeCell ref="G444:G445"/>
+    <mergeCell ref="K444:K445"/>
+    <mergeCell ref="B445:C445"/>
+    <mergeCell ref="H445:I445"/>
+    <mergeCell ref="A434:E434"/>
+    <mergeCell ref="G434:K434"/>
+    <mergeCell ref="B435:E435"/>
+    <mergeCell ref="H435:K435"/>
+    <mergeCell ref="A436:E436"/>
+    <mergeCell ref="G436:K436"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="H437:J437"/>
+    <mergeCell ref="A438:A439"/>
+    <mergeCell ref="E438:E439"/>
+    <mergeCell ref="G438:G439"/>
+    <mergeCell ref="K438:K439"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="H439:I439"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="G428:K428"/>
+    <mergeCell ref="B429:E429"/>
+    <mergeCell ref="H429:K429"/>
+    <mergeCell ref="A430:E430"/>
+    <mergeCell ref="G430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="H431:J431"/>
+    <mergeCell ref="A432:A433"/>
+    <mergeCell ref="E432:E433"/>
+    <mergeCell ref="G432:G433"/>
+    <mergeCell ref="K432:K433"/>
+    <mergeCell ref="B433:C433"/>
+    <mergeCell ref="H433:I433"/>
+    <mergeCell ref="A422:E422"/>
+    <mergeCell ref="G422:K422"/>
+    <mergeCell ref="B423:E423"/>
+    <mergeCell ref="H423:K423"/>
+    <mergeCell ref="A424:E424"/>
+    <mergeCell ref="G424:K424"/>
+    <mergeCell ref="B425:D425"/>
+    <mergeCell ref="H425:J425"/>
+    <mergeCell ref="A426:A427"/>
+    <mergeCell ref="E426:E427"/>
+    <mergeCell ref="G426:G427"/>
+    <mergeCell ref="K426:K427"/>
+    <mergeCell ref="B427:C427"/>
+    <mergeCell ref="H427:I427"/>
+    <mergeCell ref="A416:E416"/>
+    <mergeCell ref="G416:K416"/>
+    <mergeCell ref="B417:E417"/>
+    <mergeCell ref="H417:K417"/>
+    <mergeCell ref="A418:E418"/>
+    <mergeCell ref="G418:K418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="H419:J419"/>
+    <mergeCell ref="A420:A421"/>
+    <mergeCell ref="E420:E421"/>
+    <mergeCell ref="G420:G421"/>
+    <mergeCell ref="K420:K421"/>
+    <mergeCell ref="B421:C421"/>
+    <mergeCell ref="H421:I421"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="G410:K410"/>
+    <mergeCell ref="B411:E411"/>
+    <mergeCell ref="H411:K411"/>
+    <mergeCell ref="A412:E412"/>
+    <mergeCell ref="G412:K412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="H413:J413"/>
+    <mergeCell ref="A414:A415"/>
+    <mergeCell ref="E414:E415"/>
+    <mergeCell ref="G414:G415"/>
+    <mergeCell ref="K414:K415"/>
+    <mergeCell ref="B415:C415"/>
+    <mergeCell ref="H415:I415"/>
+    <mergeCell ref="A404:E404"/>
+    <mergeCell ref="G404:K404"/>
+    <mergeCell ref="B405:E405"/>
+    <mergeCell ref="H405:K405"/>
+    <mergeCell ref="A406:E406"/>
+    <mergeCell ref="G406:K406"/>
+    <mergeCell ref="B407:D407"/>
+    <mergeCell ref="H407:J407"/>
+    <mergeCell ref="A408:A409"/>
+    <mergeCell ref="E408:E409"/>
+    <mergeCell ref="G408:G409"/>
+    <mergeCell ref="K408:K409"/>
+    <mergeCell ref="B409:C409"/>
+    <mergeCell ref="H409:I409"/>
+    <mergeCell ref="A398:E398"/>
+    <mergeCell ref="G398:K398"/>
+    <mergeCell ref="B399:E399"/>
+    <mergeCell ref="H399:K399"/>
+    <mergeCell ref="A400:E400"/>
+    <mergeCell ref="G400:K400"/>
+    <mergeCell ref="B401:D401"/>
+    <mergeCell ref="H401:J401"/>
+    <mergeCell ref="A402:A403"/>
+    <mergeCell ref="E402:E403"/>
+    <mergeCell ref="G402:G403"/>
+    <mergeCell ref="K402:K403"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="H403:I403"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="G392:K392"/>
+    <mergeCell ref="B393:E393"/>
+    <mergeCell ref="H393:K393"/>
+    <mergeCell ref="A394:E394"/>
+    <mergeCell ref="G394:K394"/>
+    <mergeCell ref="B395:D395"/>
+    <mergeCell ref="H395:J395"/>
+    <mergeCell ref="A396:A397"/>
+    <mergeCell ref="E396:E397"/>
+    <mergeCell ref="G396:G397"/>
+    <mergeCell ref="K396:K397"/>
+    <mergeCell ref="B397:C397"/>
+    <mergeCell ref="H397:I397"/>
+    <mergeCell ref="A386:E386"/>
+    <mergeCell ref="G386:K386"/>
+    <mergeCell ref="B387:E387"/>
+    <mergeCell ref="H387:K387"/>
+    <mergeCell ref="A388:E388"/>
+    <mergeCell ref="G388:K388"/>
+    <mergeCell ref="B389:D389"/>
+    <mergeCell ref="H389:J389"/>
+    <mergeCell ref="A390:A391"/>
+    <mergeCell ref="E390:E391"/>
+    <mergeCell ref="G390:G391"/>
+    <mergeCell ref="K390:K391"/>
+    <mergeCell ref="B391:C391"/>
+    <mergeCell ref="H391:I391"/>
+    <mergeCell ref="A380:E380"/>
+    <mergeCell ref="G380:K380"/>
+    <mergeCell ref="B381:E381"/>
+    <mergeCell ref="H381:K381"/>
+    <mergeCell ref="A382:E382"/>
+    <mergeCell ref="G382:K382"/>
+    <mergeCell ref="B383:D383"/>
+    <mergeCell ref="H383:J383"/>
+    <mergeCell ref="A384:A385"/>
+    <mergeCell ref="E384:E385"/>
+    <mergeCell ref="G384:G385"/>
+    <mergeCell ref="K384:K385"/>
+    <mergeCell ref="B385:C385"/>
+    <mergeCell ref="H385:I385"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="G374:K374"/>
+    <mergeCell ref="B375:E375"/>
+    <mergeCell ref="H375:K375"/>
+    <mergeCell ref="A376:E376"/>
+    <mergeCell ref="G376:K376"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="H377:J377"/>
+    <mergeCell ref="A378:A379"/>
+    <mergeCell ref="E378:E379"/>
+    <mergeCell ref="G378:G379"/>
+    <mergeCell ref="K378:K379"/>
+    <mergeCell ref="B379:C379"/>
+    <mergeCell ref="H379:I379"/>
+    <mergeCell ref="A368:E368"/>
+    <mergeCell ref="G368:K368"/>
+    <mergeCell ref="B369:E369"/>
+    <mergeCell ref="H369:K369"/>
+    <mergeCell ref="A370:E370"/>
+    <mergeCell ref="G370:K370"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="H371:J371"/>
+    <mergeCell ref="A372:A373"/>
+    <mergeCell ref="E372:E373"/>
+    <mergeCell ref="G372:G373"/>
+    <mergeCell ref="K372:K373"/>
+    <mergeCell ref="B373:C373"/>
+    <mergeCell ref="H373:I373"/>
+    <mergeCell ref="A362:E362"/>
+    <mergeCell ref="G362:K362"/>
+    <mergeCell ref="B363:E363"/>
+    <mergeCell ref="H363:K363"/>
+    <mergeCell ref="A364:E364"/>
+    <mergeCell ref="G364:K364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="H365:J365"/>
+    <mergeCell ref="A366:A367"/>
+    <mergeCell ref="E366:E367"/>
+    <mergeCell ref="G366:G367"/>
+    <mergeCell ref="K366:K367"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="H367:I367"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="G356:K356"/>
+    <mergeCell ref="B357:E357"/>
+    <mergeCell ref="H357:K357"/>
+    <mergeCell ref="A358:E358"/>
+    <mergeCell ref="G358:K358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="H359:J359"/>
+    <mergeCell ref="A360:A361"/>
+    <mergeCell ref="E360:E361"/>
+    <mergeCell ref="G360:G361"/>
+    <mergeCell ref="K360:K361"/>
+    <mergeCell ref="B361:C361"/>
+    <mergeCell ref="H361:I361"/>
+    <mergeCell ref="A350:E350"/>
+    <mergeCell ref="G350:K350"/>
+    <mergeCell ref="B351:E351"/>
+    <mergeCell ref="H351:K351"/>
+    <mergeCell ref="A352:E352"/>
+    <mergeCell ref="G352:K352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="H353:J353"/>
+    <mergeCell ref="A354:A355"/>
+    <mergeCell ref="E354:E355"/>
+    <mergeCell ref="G354:G355"/>
+    <mergeCell ref="K354:K355"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="H355:I355"/>
+    <mergeCell ref="A344:E344"/>
+    <mergeCell ref="G344:K344"/>
+    <mergeCell ref="B345:E345"/>
+    <mergeCell ref="H345:K345"/>
+    <mergeCell ref="A346:E346"/>
+    <mergeCell ref="G346:K346"/>
+    <mergeCell ref="B347:D347"/>
+    <mergeCell ref="H347:J347"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="E348:E349"/>
+    <mergeCell ref="G348:G349"/>
+    <mergeCell ref="K348:K349"/>
+    <mergeCell ref="B349:C349"/>
+    <mergeCell ref="H349:I349"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="G338:K338"/>
+    <mergeCell ref="B339:E339"/>
+    <mergeCell ref="H339:K339"/>
+    <mergeCell ref="A340:E340"/>
+    <mergeCell ref="G340:K340"/>
+    <mergeCell ref="B341:D341"/>
+    <mergeCell ref="H341:J341"/>
+    <mergeCell ref="A342:A343"/>
+    <mergeCell ref="E342:E343"/>
+    <mergeCell ref="G342:G343"/>
+    <mergeCell ref="K342:K343"/>
+    <mergeCell ref="B343:C343"/>
+    <mergeCell ref="H343:I343"/>
+    <mergeCell ref="A332:E332"/>
+    <mergeCell ref="G332:K332"/>
+    <mergeCell ref="B333:E333"/>
+    <mergeCell ref="H333:K333"/>
+    <mergeCell ref="A334:E334"/>
+    <mergeCell ref="G334:K334"/>
+    <mergeCell ref="B335:D335"/>
+    <mergeCell ref="H335:J335"/>
+    <mergeCell ref="A336:A337"/>
+    <mergeCell ref="E336:E337"/>
+    <mergeCell ref="G336:G337"/>
+    <mergeCell ref="K336:K337"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="H337:I337"/>
+    <mergeCell ref="A326:E326"/>
+    <mergeCell ref="G326:K326"/>
+    <mergeCell ref="B327:E327"/>
+    <mergeCell ref="H327:K327"/>
+    <mergeCell ref="A328:E328"/>
+    <mergeCell ref="G328:K328"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="H329:J329"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="E330:E331"/>
+    <mergeCell ref="G330:G331"/>
+    <mergeCell ref="K330:K331"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="H331:I331"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="G320:K320"/>
+    <mergeCell ref="B321:E321"/>
+    <mergeCell ref="H321:K321"/>
+    <mergeCell ref="A322:E322"/>
+    <mergeCell ref="G322:K322"/>
+    <mergeCell ref="B323:D323"/>
+    <mergeCell ref="H323:J323"/>
+    <mergeCell ref="A324:A325"/>
+    <mergeCell ref="E324:E325"/>
+    <mergeCell ref="G324:G325"/>
+    <mergeCell ref="K324:K325"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="H325:I325"/>
+    <mergeCell ref="A314:E314"/>
+    <mergeCell ref="G314:K314"/>
+    <mergeCell ref="B315:E315"/>
+    <mergeCell ref="H315:K315"/>
+    <mergeCell ref="A316:E316"/>
+    <mergeCell ref="G316:K316"/>
+    <mergeCell ref="B317:D317"/>
+    <mergeCell ref="H317:J317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="E318:E319"/>
+    <mergeCell ref="G318:G319"/>
+    <mergeCell ref="K318:K319"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="H319:I319"/>
+    <mergeCell ref="A308:E308"/>
+    <mergeCell ref="G308:K308"/>
+    <mergeCell ref="B309:E309"/>
+    <mergeCell ref="H309:K309"/>
+    <mergeCell ref="A310:E310"/>
+    <mergeCell ref="G310:K310"/>
+    <mergeCell ref="B311:D311"/>
+    <mergeCell ref="H311:J311"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="E312:E313"/>
+    <mergeCell ref="G312:G313"/>
+    <mergeCell ref="K312:K313"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="H313:I313"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="G302:K302"/>
+    <mergeCell ref="B303:E303"/>
+    <mergeCell ref="H303:K303"/>
+    <mergeCell ref="A304:E304"/>
+    <mergeCell ref="G304:K304"/>
+    <mergeCell ref="B305:D305"/>
+    <mergeCell ref="H305:J305"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="E306:E307"/>
+    <mergeCell ref="G306:G307"/>
+    <mergeCell ref="K306:K307"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="H307:I307"/>
+    <mergeCell ref="A296:E296"/>
+    <mergeCell ref="G296:K296"/>
+    <mergeCell ref="B297:E297"/>
+    <mergeCell ref="H297:K297"/>
+    <mergeCell ref="A298:E298"/>
+    <mergeCell ref="G298:K298"/>
+    <mergeCell ref="B299:D299"/>
+    <mergeCell ref="H299:J299"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="E300:E301"/>
+    <mergeCell ref="G300:G301"/>
+    <mergeCell ref="K300:K301"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="H301:I301"/>
+    <mergeCell ref="A290:E290"/>
+    <mergeCell ref="G290:K290"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="H291:K291"/>
+    <mergeCell ref="A292:E292"/>
+    <mergeCell ref="G292:K292"/>
+    <mergeCell ref="B293:D293"/>
+    <mergeCell ref="H293:J293"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="E294:E295"/>
+    <mergeCell ref="G294:G295"/>
+    <mergeCell ref="K294:K295"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="H295:I295"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="G284:K284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="H285:K285"/>
+    <mergeCell ref="A286:E286"/>
+    <mergeCell ref="G286:K286"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="H287:J287"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="E288:E289"/>
+    <mergeCell ref="G288:G289"/>
+    <mergeCell ref="K288:K289"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="H289:I289"/>
+    <mergeCell ref="A278:E278"/>
+    <mergeCell ref="G278:K278"/>
+    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="H279:K279"/>
+    <mergeCell ref="A280:E280"/>
+    <mergeCell ref="G280:K280"/>
+    <mergeCell ref="B281:D281"/>
+    <mergeCell ref="H281:J281"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="E282:E283"/>
+    <mergeCell ref="G282:G283"/>
+    <mergeCell ref="K282:K283"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="H283:I283"/>
+    <mergeCell ref="A272:E272"/>
+    <mergeCell ref="G272:K272"/>
+    <mergeCell ref="B273:E273"/>
+    <mergeCell ref="H273:K273"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="G274:K274"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="H275:J275"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="E276:E277"/>
+    <mergeCell ref="G276:G277"/>
+    <mergeCell ref="K276:K277"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="G266:K266"/>
+    <mergeCell ref="B267:E267"/>
+    <mergeCell ref="H267:K267"/>
+    <mergeCell ref="A268:E268"/>
+    <mergeCell ref="G268:K268"/>
+    <mergeCell ref="B269:D269"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="E270:E271"/>
+    <mergeCell ref="G270:G271"/>
+    <mergeCell ref="K270:K271"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="H271:I271"/>
+    <mergeCell ref="A260:E260"/>
+    <mergeCell ref="G260:K260"/>
+    <mergeCell ref="B261:E261"/>
+    <mergeCell ref="H261:K261"/>
+    <mergeCell ref="A262:E262"/>
+    <mergeCell ref="G262:K262"/>
+    <mergeCell ref="B263:D263"/>
+    <mergeCell ref="H263:J263"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="G264:G265"/>
+    <mergeCell ref="K264:K265"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="A254:E254"/>
+    <mergeCell ref="G254:K254"/>
+    <mergeCell ref="B255:E255"/>
+    <mergeCell ref="H255:K255"/>
+    <mergeCell ref="A256:E256"/>
+    <mergeCell ref="G256:K256"/>
+    <mergeCell ref="B257:D257"/>
+    <mergeCell ref="H257:J257"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="E258:E259"/>
+    <mergeCell ref="G258:G259"/>
+    <mergeCell ref="K258:K259"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="G248:K248"/>
+    <mergeCell ref="B249:E249"/>
+    <mergeCell ref="H249:K249"/>
+    <mergeCell ref="A250:E250"/>
+    <mergeCell ref="G250:K250"/>
+    <mergeCell ref="B251:D251"/>
+    <mergeCell ref="H251:J251"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="E252:E253"/>
+    <mergeCell ref="G252:G253"/>
+    <mergeCell ref="K252:K253"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="A242:E242"/>
+    <mergeCell ref="G242:K242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="H243:K243"/>
+    <mergeCell ref="A244:E244"/>
+    <mergeCell ref="G244:K244"/>
+    <mergeCell ref="B245:D245"/>
+    <mergeCell ref="H245:J245"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="E246:E247"/>
+    <mergeCell ref="G246:G247"/>
+    <mergeCell ref="K246:K247"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="A236:E236"/>
+    <mergeCell ref="G236:K236"/>
+    <mergeCell ref="B237:E237"/>
+    <mergeCell ref="H237:K237"/>
+    <mergeCell ref="A238:E238"/>
+    <mergeCell ref="G238:K238"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="H239:J239"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="G240:G241"/>
+    <mergeCell ref="K240:K241"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="G230:K230"/>
+    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="H231:K231"/>
+    <mergeCell ref="A232:E232"/>
+    <mergeCell ref="G232:K232"/>
+    <mergeCell ref="B233:D233"/>
+    <mergeCell ref="H233:J233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="E234:E235"/>
+    <mergeCell ref="G234:G235"/>
+    <mergeCell ref="K234:K235"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="A224:E224"/>
+    <mergeCell ref="G224:K224"/>
+    <mergeCell ref="B225:E225"/>
+    <mergeCell ref="H225:K225"/>
+    <mergeCell ref="A226:E226"/>
+    <mergeCell ref="G226:K226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="H227:J227"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="G228:G229"/>
+    <mergeCell ref="K228:K229"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="A218:E218"/>
+    <mergeCell ref="G218:K218"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="H219:K219"/>
+    <mergeCell ref="A220:E220"/>
+    <mergeCell ref="G220:K220"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="H221:J221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="E222:E223"/>
+    <mergeCell ref="G222:G223"/>
+    <mergeCell ref="K222:K223"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="G212:K212"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="H213:K213"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="G214:K214"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="H215:J215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="G216:G217"/>
+    <mergeCell ref="K216:K217"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="G206:K206"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="H207:K207"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="G208:K208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="H209:J209"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="G210:G211"/>
+    <mergeCell ref="K210:K211"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="G200:K200"/>
+    <mergeCell ref="B201:E201"/>
+    <mergeCell ref="H201:K201"/>
+    <mergeCell ref="A202:E202"/>
+    <mergeCell ref="G202:K202"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="H203:J203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="G204:G205"/>
+    <mergeCell ref="K204:K205"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="G194:K194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="H195:K195"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="G196:K196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="H197:J197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="G198:G199"/>
+    <mergeCell ref="K198:K199"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="G188:K188"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="H189:K189"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="G190:K190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="H191:J191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="G192:G193"/>
+    <mergeCell ref="K192:K193"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="A182:E182"/>
+    <mergeCell ref="G182:K182"/>
+    <mergeCell ref="B183:E183"/>
+    <mergeCell ref="H183:K183"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="G184:K184"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="H185:J185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="G186:G187"/>
+    <mergeCell ref="K186:K187"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="G176:K176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="H177:K177"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="G178:K178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="H179:J179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="G180:G181"/>
+    <mergeCell ref="K180:K181"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="G170:K170"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="H171:K171"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="G172:K172"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="K174:K175"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="G164:K164"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="H165:K165"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="G166:K166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="H167:J167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="K168:K169"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="G158:K158"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="H159:K159"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="G160:K160"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="G162:G163"/>
+    <mergeCell ref="K162:K163"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:K152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="G154:K154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="G156:G157"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="G146:K146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="G148:K148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="G140:K140"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="G142:K142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="K144:K145"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="G134:K134"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="G136:K136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="G128:K128"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="G130:K130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:K124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="H15:K15"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="B3:E3"/>
@@ -3141,264 +11559,6 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="G88:K88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="H105:K105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="K114:K115"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="G116:K116"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="H117:K117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="H119:J119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="H121:I121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
